--- a/アプリケーション方式設計書_5API処理方式.xlsx
+++ b/アプリケーション方式設計書_5API処理方式.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA8318B-761B-4A9D-A0F6-178930417CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3D1A44-5ED7-47E6-83A5-4B5B40BDA38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,44 +937,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>入力値精査には、Javaのバリデーションの標準仕様であるBean Validationの仕組みを使用する。</t>
-    <rPh sb="0" eb="3">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジュン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>シク</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Bean Validationの実装としては、Spring Frameworkに組み込まれているHibernate Validatorを用いる。</t>
-    <rPh sb="16" eb="18">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>モチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>入力値精査の種類</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1043,16 +1005,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>単項目精査は、Bean Validationで精査を行う。</t>
-    <rPh sb="23" eb="25">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>単項目精査ルールは共通コンポーネント（アノテーション）として実装し、各機能で利用する。</t>
     <rPh sb="30" eb="32">
       <t>ジッソウ</t>
@@ -1070,16 +1022,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>項目間精査は、Bean Validationで精査を行う。</t>
-    <rPh sb="22" eb="24">
-      <t>セイサ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>単項目精査と項目間精査の実行順序は保証されず、単項目精査を実行する前に項目間精査が実行される場合があり得る。</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
@@ -7761,28 +7703,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>なお、シンプルさを保つためBean Validationのもつバリデーションのグループ化による実行順序の制御は行わない方針とする。</t>
-    <rPh sb="9" eb="10">
-      <t>タモ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="45" eb="49">
-      <t>ジッコウジュンジョ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>セイギョ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ホウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>動作としては、トランザクション境界となるメソッドに入るとトランザクションの開始となり、メソッドが正常に終了するか</t>
     <rPh sb="0" eb="2">
       <t>ドウサ</t>
@@ -8069,6 +7989,86 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力値精査には、Javaのバリデーションの標準仕様であるJakarta Bean Validationの仕組みを使用する。</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジュン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Jakarta Bean Validationの実装としては、Spring Frameworkに組み込まれているHibernate Validatorを用いる。</t>
+    <rPh sb="24" eb="26">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>単項目精査は、Jakarta Bean Validationで精査を行う。</t>
+    <rPh sb="31" eb="33">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目間精査は、Jakarta Bean Validationで精査を行う。</t>
+    <rPh sb="30" eb="32">
+      <t>セイサ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なお、シンプルさを保つためJakarta Bean Validationのもつバリデーションのグループ化による実行順序の制御は行わない方針とする。</t>
+    <rPh sb="9" eb="10">
+      <t>タモ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="53" eb="57">
+      <t>ジッコウジュンジョ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ホウシン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -8821,6 +8821,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8877,45 +8916,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -15927,7 +15927,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="URL設計方針!$B$3:$M$7" spid="_x0000_s1034"/>
+                  <a14:cameraTool cellRange="URL設計方針!$B$3:$M$7" spid="_x0000_s1035"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -21251,45 +21251,45 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="133" t="s">
+      <c r="E1" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="135"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="147"/>
+      <c r="N1" s="147"/>
+      <c r="O1" s="148"/>
       <c r="P1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="Q1" s="2"/>
-      <c r="R1" s="136" t="s">
+      <c r="R1" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="138"/>
+      <c r="S1" s="150"/>
+      <c r="T1" s="150"/>
+      <c r="U1" s="150"/>
+      <c r="V1" s="150"/>
+      <c r="W1" s="150"/>
+      <c r="X1" s="151"/>
       <c r="Y1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Z1" s="3"/>
-      <c r="AA1" s="139"/>
-      <c r="AB1" s="140"/>
-      <c r="AC1" s="140"/>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="141"/>
-      <c r="AF1" s="142"/>
-      <c r="AG1" s="143"/>
-      <c r="AH1" s="143"/>
-      <c r="AI1" s="144"/>
+      <c r="AA1" s="152"/>
+      <c r="AB1" s="153"/>
+      <c r="AC1" s="153"/>
+      <c r="AD1" s="153"/>
+      <c r="AE1" s="154"/>
+      <c r="AF1" s="155"/>
+      <c r="AG1" s="156"/>
+      <c r="AH1" s="156"/>
+      <c r="AI1" s="157"/>
     </row>
     <row r="2" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -21298,43 +21298,43 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="135"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="147"/>
+      <c r="M2" s="147"/>
+      <c r="N2" s="147"/>
+      <c r="O2" s="148"/>
       <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="145" t="s">
+      <c r="R2" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="146"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="147"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="159"/>
+      <c r="U2" s="159"/>
+      <c r="V2" s="159"/>
+      <c r="W2" s="159"/>
+      <c r="X2" s="160"/>
       <c r="Y2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="Z2" s="3"/>
-      <c r="AA2" s="139"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="141"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="143"/>
-      <c r="AH2" s="143"/>
-      <c r="AI2" s="144"/>
+      <c r="AA2" s="152"/>
+      <c r="AB2" s="153"/>
+      <c r="AC2" s="153"/>
+      <c r="AD2" s="153"/>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="155"/>
+      <c r="AG2" s="156"/>
+      <c r="AH2" s="156"/>
+      <c r="AI2" s="157"/>
     </row>
     <row r="3" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -21343,47 +21343,47 @@
       <c r="B3" s="10"/>
       <c r="C3" s="11"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="151"/>
-      <c r="O3" s="151"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="164"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="164"/>
+      <c r="I3" s="164"/>
+      <c r="J3" s="164"/>
+      <c r="K3" s="164"/>
+      <c r="L3" s="164"/>
+      <c r="M3" s="164"/>
+      <c r="N3" s="164"/>
+      <c r="O3" s="164"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="13"/>
-      <c r="R3" s="148"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="150"/>
+      <c r="R3" s="161"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="162"/>
+      <c r="U3" s="162"/>
+      <c r="V3" s="162"/>
+      <c r="W3" s="162"/>
+      <c r="X3" s="163"/>
       <c r="Y3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="Z3" s="14"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="140"/>
-      <c r="AC3" s="140"/>
-      <c r="AD3" s="140"/>
-      <c r="AE3" s="141"/>
-      <c r="AF3" s="142"/>
-      <c r="AG3" s="143"/>
-      <c r="AH3" s="143"/>
-      <c r="AI3" s="144"/>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="153"/>
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="153"/>
+      <c r="AE3" s="154"/>
+      <c r="AF3" s="155"/>
+      <c r="AG3" s="156"/>
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="157"/>
     </row>
     <row r="4" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="15" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21401,7 +21401,7 @@
     <row r="8" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="16"/>
       <c r="D8" s="98" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E8" s="98"/>
       <c r="F8" s="98"/>
@@ -21446,7 +21446,7 @@
         <v>5.2.</v>
       </c>
       <c r="D10" s="98" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E10" s="98"/>
       <c r="F10" s="98"/>
@@ -22401,7 +22401,7 @@
     <row r="38" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C38" s="76"/>
       <c r="D38" s="76" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E38" s="76"/>
       <c r="F38" s="76"/>
@@ -23373,7 +23373,7 @@
       <c r="I66" s="32"/>
       <c r="J66" s="33"/>
       <c r="K66" s="22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="L66" s="25"/>
       <c r="M66" s="25"/>
@@ -23382,7 +23382,7 @@
       <c r="P66" s="25"/>
       <c r="Q66" s="26"/>
       <c r="R66" s="22" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="S66" s="25"/>
       <c r="T66" s="25"/>
@@ -23413,7 +23413,7 @@
       <c r="P67" s="20"/>
       <c r="Q67" s="21"/>
       <c r="R67" s="19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="S67" s="20"/>
       <c r="T67" s="20"/>
@@ -23446,7 +23446,7 @@
       <c r="P68" s="39"/>
       <c r="Q68" s="40"/>
       <c r="R68" s="38" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="S68" s="39"/>
       <c r="T68" s="39"/>
@@ -23483,7 +23483,7 @@
       <c r="P69" s="39"/>
       <c r="Q69" s="40"/>
       <c r="R69" s="38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="S69" s="39"/>
       <c r="T69" s="39"/>
@@ -23559,7 +23559,7 @@
       <c r="P71" s="39"/>
       <c r="Q71" s="40"/>
       <c r="R71" s="38" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="S71" s="39"/>
       <c r="T71" s="39"/>
@@ -23829,7 +23829,7 @@
     <row r="79" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C79" s="76"/>
       <c r="D79" s="76" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E79" s="76"/>
       <c r="F79" s="76"/>
@@ -23971,7 +23971,7 @@
     <row r="83" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C83" s="76"/>
       <c r="D83" s="108" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="E83" s="76"/>
       <c r="F83" s="76"/>
@@ -24007,7 +24007,7 @@
     <row r="84" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C84" s="76"/>
       <c r="D84" s="108" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E84" s="76"/>
       <c r="F84" s="76"/>
@@ -24077,7 +24077,7 @@
     <row r="86" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C86" s="76"/>
       <c r="D86" s="76" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E86" s="76"/>
       <c r="F86" s="76"/>
@@ -24147,7 +24147,7 @@
     <row r="88" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C88" s="76"/>
       <c r="D88" s="76" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E88" s="76"/>
       <c r="F88" s="76"/>
@@ -24183,7 +24183,7 @@
     <row r="89" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C89" s="76"/>
       <c r="D89" s="76" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E89" s="76"/>
       <c r="F89" s="76"/>
@@ -24695,7 +24695,7 @@
     <row r="104" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C104" s="76"/>
       <c r="D104" s="76" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E104" s="76"/>
       <c r="F104" s="76"/>
@@ -24844,7 +24844,7 @@
       <c r="C108" s="76"/>
       <c r="D108" s="76"/>
       <c r="E108" s="76" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F108" s="76"/>
       <c r="G108" s="76"/>
@@ -25333,7 +25333,7 @@
       <c r="C122" s="79"/>
       <c r="D122" s="79"/>
       <c r="E122" s="79" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F122" s="79"/>
       <c r="G122" s="79"/>
@@ -25692,7 +25692,7 @@
       <c r="N132" s="25"/>
       <c r="O132" s="26"/>
       <c r="P132" s="22" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="Q132" s="25"/>
       <c r="R132" s="25"/>
@@ -25727,7 +25727,7 @@
       <c r="N133" s="20"/>
       <c r="O133" s="21"/>
       <c r="P133" s="19" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q133" s="20"/>
       <c r="R133" s="20"/>
@@ -25754,7 +25754,7 @@
         <v>50</v>
       </c>
       <c r="F134" s="22" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G134" s="25"/>
       <c r="H134" s="25"/>
@@ -25766,7 +25766,7 @@
       <c r="N134" s="25"/>
       <c r="O134" s="26"/>
       <c r="P134" s="22" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="Q134" s="25"/>
       <c r="R134" s="25"/>
@@ -25827,7 +25827,7 @@
         <v>51</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G136" s="25"/>
       <c r="H136" s="25"/>
@@ -25839,7 +25839,7 @@
       <c r="N136" s="25"/>
       <c r="O136" s="26"/>
       <c r="P136" s="22" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q136" s="25"/>
       <c r="R136" s="25"/>
@@ -25899,7 +25899,7 @@
         <v>52</v>
       </c>
       <c r="F138" s="115" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G138" s="116"/>
       <c r="H138" s="116"/>
@@ -25911,7 +25911,7 @@
       <c r="N138" s="116"/>
       <c r="O138" s="117"/>
       <c r="P138" s="115" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Q138" s="116"/>
       <c r="R138" s="116"/>
@@ -25971,7 +25971,7 @@
         <v>53</v>
       </c>
       <c r="F140" s="115" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G140" s="116"/>
       <c r="H140" s="116"/>
@@ -25983,7 +25983,7 @@
       <c r="N140" s="116"/>
       <c r="O140" s="117"/>
       <c r="P140" s="115" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="Q140" s="116"/>
       <c r="R140" s="116"/>
@@ -26041,7 +26041,7 @@
       <c r="C142" s="79"/>
       <c r="D142" s="79"/>
       <c r="E142" s="108" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F142" s="108"/>
       <c r="G142" s="108"/>
@@ -26077,7 +26077,7 @@
       <c r="C143" s="76"/>
       <c r="D143" s="76"/>
       <c r="E143" s="108" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F143" s="108"/>
       <c r="G143" s="108"/>
@@ -26147,7 +26147,7 @@
       <c r="C145" s="80"/>
       <c r="D145" s="80"/>
       <c r="E145" s="108" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="F145" s="108"/>
       <c r="G145" s="108"/>
@@ -26217,7 +26217,7 @@
       <c r="C147" s="76"/>
       <c r="D147" s="76"/>
       <c r="E147" s="108" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="F147" s="108"/>
       <c r="G147" s="108"/>
@@ -26253,7 +26253,7 @@
       <c r="C148" s="80"/>
       <c r="D148" s="80"/>
       <c r="E148" s="76" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F148" s="80"/>
       <c r="G148" s="80"/>
@@ -26362,7 +26362,7 @@
       <c r="C151" s="76"/>
       <c r="D151" s="15"/>
       <c r="E151" s="76" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F151" s="76"/>
       <c r="G151" s="76"/>
@@ -26658,7 +26658,7 @@
       <c r="C159" s="76"/>
       <c r="D159" s="76"/>
       <c r="E159" s="108" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F159" s="76"/>
       <c r="G159" s="76"/>
@@ -26785,7 +26785,7 @@
       <c r="C163" s="76"/>
       <c r="D163" s="15"/>
       <c r="E163" s="76" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F163" s="76"/>
       <c r="G163" s="76"/>
@@ -27049,7 +27049,7 @@
       <c r="I170" s="20"/>
       <c r="J170" s="21"/>
       <c r="K170" s="19" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L170" s="20"/>
       <c r="M170" s="20"/>
@@ -27477,7 +27477,7 @@
       <c r="C182" s="83"/>
       <c r="D182" s="83"/>
       <c r="E182" s="83" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F182" s="83"/>
       <c r="G182" s="83"/>
@@ -27596,7 +27596,7 @@
       <c r="J185" s="25"/>
       <c r="K185" s="26"/>
       <c r="L185" s="22" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M185" s="25"/>
       <c r="N185" s="25"/>
@@ -27633,7 +27633,7 @@
       <c r="J186" s="20"/>
       <c r="K186" s="21"/>
       <c r="L186" s="19" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="M186" s="20"/>
       <c r="N186" s="20"/>
@@ -27672,7 +27672,7 @@
       <c r="J187" s="25"/>
       <c r="K187" s="26"/>
       <c r="L187" s="22" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M187" s="25"/>
       <c r="N187" s="25"/>
@@ -27709,7 +27709,7 @@
       <c r="J188" s="20"/>
       <c r="K188" s="21"/>
       <c r="L188" s="19" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="M188" s="20"/>
       <c r="N188" s="20"/>
@@ -27739,7 +27739,7 @@
       <c r="C189" s="83"/>
       <c r="D189" s="83"/>
       <c r="E189" s="22" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F189" s="25"/>
       <c r="G189" s="25"/>
@@ -27748,7 +27748,7 @@
       <c r="J189" s="25"/>
       <c r="K189" s="26"/>
       <c r="L189" s="22" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M189" s="25"/>
       <c r="N189" s="25"/>
@@ -27785,7 +27785,7 @@
       <c r="J190" s="20"/>
       <c r="K190" s="21"/>
       <c r="L190" s="19" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M190" s="20"/>
       <c r="N190" s="20"/>
@@ -27853,7 +27853,7 @@
         <v>5.5.2.</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F192" s="76"/>
       <c r="G192" s="76"/>
@@ -27889,7 +27889,7 @@
       <c r="C193" s="76"/>
       <c r="D193" s="15"/>
       <c r="E193" s="4" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="F193" s="76"/>
       <c r="G193" s="76"/>
@@ -27925,7 +27925,7 @@
       <c r="C194" s="99"/>
       <c r="D194" s="15"/>
       <c r="E194" s="4" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F194" s="99"/>
       <c r="G194" s="99"/>
@@ -27995,20 +27995,20 @@
     <row r="196" spans="3:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C196" s="15"/>
       <c r="E196" s="55" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F196" s="56"/>
       <c r="G196" s="56"/>
       <c r="H196" s="57"/>
       <c r="I196" s="55" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="J196" s="56"/>
       <c r="K196" s="56"/>
       <c r="L196" s="56"/>
       <c r="M196" s="57"/>
       <c r="N196" s="55" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="O196" s="56"/>
       <c r="P196" s="56"/>
@@ -28020,7 +28020,7 @@
       <c r="T196" s="56"/>
       <c r="U196" s="49"/>
       <c r="V196" s="56" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="W196" s="56"/>
       <c r="X196" s="56"/>
@@ -28048,7 +28048,7 @@
       <c r="L197" s="90"/>
       <c r="M197" s="91"/>
       <c r="N197" s="89" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="O197" s="90"/>
       <c r="P197" s="90"/>
@@ -28088,19 +28088,19 @@
       <c r="L198" s="20"/>
       <c r="M198" s="21"/>
       <c r="N198" s="19" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="O198" s="20"/>
       <c r="P198" s="30"/>
       <c r="Q198" s="19" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="R198" s="20"/>
       <c r="S198" s="20"/>
       <c r="T198" s="20"/>
       <c r="U198" s="34"/>
       <c r="V198" s="29" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="W198" s="20"/>
       <c r="X198" s="20"/>
@@ -28130,19 +28130,19 @@
       <c r="L199" s="39"/>
       <c r="M199" s="40"/>
       <c r="N199" s="38" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="O199" s="39"/>
       <c r="P199" s="41"/>
       <c r="Q199" s="38" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="R199" s="39"/>
       <c r="S199" s="39"/>
       <c r="T199" s="39"/>
       <c r="U199" s="42"/>
       <c r="V199" s="29" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="W199" s="39"/>
       <c r="X199" s="39"/>
@@ -28165,26 +28165,26 @@
       <c r="G200" s="82"/>
       <c r="H200" s="82"/>
       <c r="I200" s="22" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="J200" s="25"/>
       <c r="K200" s="25"/>
       <c r="L200" s="25"/>
       <c r="M200" s="26"/>
       <c r="N200" s="22" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="O200" s="25"/>
       <c r="P200" s="32"/>
       <c r="Q200" s="22" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="R200" s="25"/>
       <c r="S200" s="25"/>
       <c r="T200" s="25"/>
       <c r="U200" s="33"/>
       <c r="V200" s="31" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="W200" s="25"/>
       <c r="X200" s="25"/>
@@ -28207,7 +28207,7 @@
       <c r="G201" s="82"/>
       <c r="H201" s="82"/>
       <c r="I201" s="19" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="J201" s="20"/>
       <c r="K201" s="20"/>
@@ -28250,19 +28250,19 @@
       <c r="L202" s="82"/>
       <c r="M202" s="18"/>
       <c r="N202" s="17" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="O202" s="82"/>
       <c r="P202" s="84"/>
       <c r="Q202" s="17" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="R202" s="82"/>
       <c r="S202" s="82"/>
       <c r="T202" s="82"/>
       <c r="U202" s="28"/>
       <c r="V202" s="27" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="W202" s="82"/>
       <c r="X202" s="82"/>
@@ -28287,26 +28287,26 @@
       <c r="G203" s="25"/>
       <c r="H203" s="26"/>
       <c r="I203" s="38" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="J203" s="39"/>
       <c r="K203" s="39"/>
       <c r="L203" s="39"/>
       <c r="M203" s="40"/>
       <c r="N203" s="38" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="O203" s="39"/>
       <c r="P203" s="41"/>
       <c r="Q203" s="38" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="R203" s="39"/>
       <c r="S203" s="39"/>
       <c r="T203" s="39"/>
       <c r="U203" s="42"/>
       <c r="V203" s="66" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="W203" s="39"/>
       <c r="X203" s="39"/>
@@ -28329,26 +28329,26 @@
       <c r="G204" s="82"/>
       <c r="H204" s="18"/>
       <c r="I204" s="101" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="J204" s="102"/>
       <c r="K204" s="102"/>
       <c r="L204" s="102"/>
       <c r="M204" s="103"/>
       <c r="N204" s="101" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="O204" s="102"/>
       <c r="P204" s="104"/>
       <c r="Q204" s="101" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="R204" s="102"/>
       <c r="S204" s="102"/>
       <c r="T204" s="102"/>
       <c r="U204" s="105"/>
       <c r="V204" s="106" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="W204" s="102"/>
       <c r="X204" s="102"/>
@@ -28384,7 +28384,7 @@
       <c r="T205" s="102"/>
       <c r="U205" s="105"/>
       <c r="V205" s="106" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="W205" s="102"/>
       <c r="X205" s="102"/>
@@ -28409,26 +28409,26 @@
       <c r="G206" s="25"/>
       <c r="H206" s="26"/>
       <c r="I206" s="38" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="J206" s="39"/>
       <c r="K206" s="39"/>
       <c r="L206" s="39"/>
       <c r="M206" s="40"/>
       <c r="N206" s="38" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="O206" s="39"/>
       <c r="P206" s="41"/>
       <c r="Q206" s="38" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="R206" s="39"/>
       <c r="S206" s="39"/>
       <c r="T206" s="39"/>
       <c r="U206" s="42"/>
       <c r="V206" s="66" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="W206" s="39"/>
       <c r="X206" s="39"/>
@@ -28451,26 +28451,26 @@
       <c r="G207" s="82"/>
       <c r="H207" s="18"/>
       <c r="I207" s="22" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="J207" s="25"/>
       <c r="K207" s="25"/>
       <c r="L207" s="25"/>
       <c r="M207" s="26"/>
       <c r="N207" s="22" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="O207" s="25"/>
       <c r="P207" s="32"/>
       <c r="Q207" s="22" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="R207" s="25"/>
       <c r="S207" s="25"/>
       <c r="T207" s="25"/>
       <c r="U207" s="33"/>
       <c r="V207" s="31" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="W207" s="25"/>
       <c r="X207" s="25"/>
@@ -28493,7 +28493,7 @@
       <c r="G208" s="82"/>
       <c r="H208" s="18"/>
       <c r="I208" s="19" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="J208" s="20"/>
       <c r="K208" s="20"/>
@@ -28503,14 +28503,14 @@
       <c r="O208" s="20"/>
       <c r="P208" s="30"/>
       <c r="Q208" s="19" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="R208" s="20"/>
       <c r="S208" s="20"/>
       <c r="T208" s="20"/>
       <c r="U208" s="34"/>
       <c r="V208" s="29" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="W208" s="20"/>
       <c r="X208" s="20"/>
@@ -28533,26 +28533,26 @@
       <c r="G209" s="82"/>
       <c r="H209" s="18"/>
       <c r="I209" s="22" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="J209" s="25"/>
       <c r="K209" s="25"/>
       <c r="L209" s="25"/>
       <c r="M209" s="26"/>
       <c r="N209" s="22" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="O209" s="25"/>
       <c r="P209" s="32"/>
       <c r="Q209" s="131" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="R209" s="25"/>
       <c r="S209" s="25"/>
       <c r="T209" s="25"/>
       <c r="U209" s="33"/>
       <c r="V209" s="31" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="W209" s="25"/>
       <c r="X209" s="25"/>
@@ -28588,7 +28588,7 @@
       <c r="T210" s="20"/>
       <c r="U210" s="34"/>
       <c r="V210" s="29" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="W210" s="20"/>
       <c r="X210" s="20"/>
@@ -28611,26 +28611,26 @@
       <c r="G211" s="82"/>
       <c r="H211" s="18"/>
       <c r="I211" s="22" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="J211" s="25"/>
       <c r="K211" s="25"/>
       <c r="L211" s="25"/>
       <c r="M211" s="26"/>
       <c r="N211" s="22" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="O211" s="25"/>
       <c r="P211" s="32"/>
       <c r="Q211" s="22" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="R211" s="25"/>
       <c r="S211" s="25"/>
       <c r="T211" s="25"/>
       <c r="U211" s="33"/>
       <c r="V211" s="31" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="W211" s="25"/>
       <c r="X211" s="25"/>
@@ -28663,14 +28663,14 @@
       <c r="O212" s="20"/>
       <c r="P212" s="30"/>
       <c r="Q212" s="85" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="R212" s="86"/>
       <c r="S212" s="86"/>
       <c r="T212" s="86"/>
       <c r="U212" s="87"/>
       <c r="V212" s="29" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="W212" s="20"/>
       <c r="X212" s="20"/>
@@ -28722,7 +28722,7 @@
     <row r="214" spans="3:46" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C214" s="15"/>
       <c r="E214" s="76" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F214" s="76"/>
       <c r="G214" s="76"/>
@@ -28757,7 +28757,7 @@
     <row r="215" spans="3:46" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C215" s="15"/>
       <c r="E215" s="76" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="216" spans="3:46" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -28972,7 +28972,7 @@
         <v>5.6.</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="E227" s="76"/>
       <c r="F227" s="76"/>
@@ -29009,21 +29009,21 @@
       <c r="C228" s="76"/>
       <c r="D228" s="15"/>
       <c r="E228" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="3:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C229" s="76"/>
       <c r="D229" s="15"/>
       <c r="E229" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="230" spans="3:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C230" s="76"/>
       <c r="D230" s="15"/>
       <c r="E230" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="231" spans="3:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -29115,7 +29115,7 @@
     <row r="235" spans="3:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C235" s="15"/>
       <c r="E235" s="76" t="s">
-        <v>100</v>
+        <v>611</v>
       </c>
       <c r="F235" s="76"/>
       <c r="G235" s="76"/>
@@ -29150,7 +29150,7 @@
     <row r="236" spans="3:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C236" s="15"/>
       <c r="E236" s="76" t="s">
-        <v>101</v>
+        <v>612</v>
       </c>
       <c r="F236" s="76"/>
       <c r="G236" s="76"/>
@@ -29222,7 +29222,7 @@
         <v>5.7.2.</v>
       </c>
       <c r="E238" s="108" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F238" s="108"/>
       <c r="G238" s="108"/>
@@ -29258,7 +29258,7 @@
       <c r="C239" s="16"/>
       <c r="D239" s="108"/>
       <c r="E239" s="108" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F239" s="108"/>
       <c r="G239" s="108"/>
@@ -29328,7 +29328,7 @@
       <c r="C241" s="16"/>
       <c r="D241" s="108"/>
       <c r="E241" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F241" s="24"/>
       <c r="G241" s="24"/>
@@ -29336,7 +29336,7 @@
       <c r="I241" s="24"/>
       <c r="J241" s="23"/>
       <c r="K241" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L241" s="24"/>
       <c r="M241" s="24"/>
@@ -29366,7 +29366,7 @@
       <c r="C242" s="16"/>
       <c r="D242" s="108"/>
       <c r="E242" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F242" s="108"/>
       <c r="G242" s="108"/>
@@ -29374,7 +29374,7 @@
       <c r="I242" s="108"/>
       <c r="J242" s="18"/>
       <c r="K242" s="108" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L242" s="108"/>
       <c r="M242" s="108"/>
@@ -29436,7 +29436,7 @@
       <c r="C244" s="16"/>
       <c r="D244" s="108"/>
       <c r="E244" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F244" s="108"/>
       <c r="G244" s="108"/>
@@ -29444,7 +29444,7 @@
       <c r="I244" s="108"/>
       <c r="J244" s="18"/>
       <c r="K244" s="108" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L244" s="108"/>
       <c r="M244" s="108"/>
@@ -29506,7 +29506,7 @@
       <c r="C246" s="16"/>
       <c r="D246" s="108"/>
       <c r="E246" s="126" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F246" s="127"/>
       <c r="G246" s="127"/>
@@ -29514,7 +29514,7 @@
       <c r="I246" s="127"/>
       <c r="J246" s="18"/>
       <c r="K246" s="108" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L246" s="108"/>
       <c r="M246" s="108"/>
@@ -29542,7 +29542,7 @@
       <c r="C247" s="16"/>
       <c r="D247" s="108"/>
       <c r="E247" s="128" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F247" s="129"/>
       <c r="G247" s="129"/>
@@ -29615,7 +29615,7 @@
         <v>5.7.3.</v>
       </c>
       <c r="E249" s="108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F249" s="108"/>
       <c r="G249" s="108"/>
@@ -29651,7 +29651,7 @@
       <c r="C250" s="16"/>
       <c r="D250" s="108"/>
       <c r="E250" s="108" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F250" s="108"/>
       <c r="G250" s="108"/>
@@ -29758,7 +29758,7 @@
         <v>5.7.4.</v>
       </c>
       <c r="E253" s="108" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F253" s="108"/>
       <c r="G253" s="108"/>
@@ -29831,7 +29831,7 @@
         <v>48</v>
       </c>
       <c r="F255" s="108" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G255" s="108"/>
       <c r="H255" s="108"/>
@@ -29867,7 +29867,7 @@
       <c r="D256" s="108"/>
       <c r="E256" s="108"/>
       <c r="F256" s="108" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="G256" s="108"/>
       <c r="H256" s="108"/>
@@ -29903,7 +29903,7 @@
       <c r="D257" s="108"/>
       <c r="E257" s="108"/>
       <c r="F257" s="108" t="s">
-        <v>114</v>
+        <v>613</v>
       </c>
       <c r="G257" s="108"/>
       <c r="H257" s="108"/>
@@ -29973,7 +29973,7 @@
       <c r="D259" s="108"/>
       <c r="E259" s="108"/>
       <c r="F259" s="108" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G259" s="108"/>
       <c r="H259" s="108"/>
@@ -30045,7 +30045,7 @@
         <v>50</v>
       </c>
       <c r="F261" s="108" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G261" s="108"/>
       <c r="H261" s="108"/>
@@ -30081,7 +30081,7 @@
       <c r="D262" s="108"/>
       <c r="E262" s="108"/>
       <c r="F262" s="130" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="G262" s="108"/>
       <c r="H262" s="108"/>
@@ -30117,7 +30117,7 @@
       <c r="D263" s="108"/>
       <c r="E263" s="108"/>
       <c r="F263" s="130" t="s">
-        <v>117</v>
+        <v>614</v>
       </c>
       <c r="G263" s="108"/>
       <c r="H263" s="108"/>
@@ -30187,7 +30187,7 @@
       <c r="D265" s="108"/>
       <c r="E265" s="108"/>
       <c r="F265" s="130" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G265" s="108"/>
       <c r="H265" s="108"/>
@@ -30223,7 +30223,7 @@
       <c r="D266" s="108"/>
       <c r="E266" s="108"/>
       <c r="F266" s="130" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G266" s="108"/>
       <c r="H266" s="108"/>
@@ -30259,7 +30259,7 @@
       <c r="D267" s="108"/>
       <c r="E267" s="108"/>
       <c r="F267" s="130" t="s">
-        <v>592</v>
+        <v>615</v>
       </c>
       <c r="G267" s="108"/>
       <c r="H267" s="108"/>
@@ -30331,7 +30331,7 @@
         <v>51</v>
       </c>
       <c r="F269" s="108" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G269" s="108"/>
       <c r="H269" s="108"/>
@@ -30367,7 +30367,7 @@
       <c r="D270" s="108"/>
       <c r="E270" s="108"/>
       <c r="F270" s="130" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G270" s="108"/>
       <c r="H270" s="108"/>
@@ -30403,7 +30403,7 @@
       <c r="D271" s="108"/>
       <c r="E271" s="108"/>
       <c r="F271" s="108" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G271" s="108"/>
       <c r="H271" s="108"/>
@@ -30471,7 +30471,7 @@
         <v>5.7.5.</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H273" s="76"/>
       <c r="I273" s="76"/>
@@ -30504,7 +30504,7 @@
     <row r="274" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C274" s="15"/>
       <c r="E274" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H274" s="76"/>
       <c r="I274" s="76"/>
@@ -30573,7 +30573,7 @@
         <v>5.8.</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E276" s="76"/>
       <c r="F276" s="76"/>
@@ -30613,7 +30613,7 @@
         <v>5.8.1.</v>
       </c>
       <c r="E277" s="76" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F277" s="76"/>
       <c r="G277" s="76"/>
@@ -30648,7 +30648,7 @@
     <row r="278" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C278" s="15"/>
       <c r="E278" s="76" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F278" s="76"/>
       <c r="G278" s="76"/>
@@ -30683,7 +30683,7 @@
     <row r="279" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C279" s="15"/>
       <c r="E279" s="76" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F279" s="76"/>
       <c r="G279" s="76"/>
@@ -30751,7 +30751,7 @@
     <row r="281" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C281" s="15"/>
       <c r="E281" s="76" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F281" s="76"/>
       <c r="G281" s="76"/>
@@ -30819,7 +30819,7 @@
     <row r="283" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C283" s="15"/>
       <c r="E283" s="43" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F283" s="24"/>
       <c r="G283" s="24"/>
@@ -30828,7 +30828,7 @@
       <c r="J283" s="24"/>
       <c r="K283" s="23"/>
       <c r="L283" s="43" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M283" s="24"/>
       <c r="N283" s="24"/>
@@ -30856,7 +30856,7 @@
     <row r="284" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C284" s="15"/>
       <c r="E284" s="38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F284" s="39"/>
       <c r="G284" s="39"/>
@@ -30865,7 +30865,7 @@
       <c r="J284" s="39"/>
       <c r="K284" s="40"/>
       <c r="L284" s="38" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M284" s="39"/>
       <c r="N284" s="39"/>
@@ -30893,7 +30893,7 @@
     <row r="285" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C285" s="15"/>
       <c r="E285" s="38" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F285" s="39"/>
       <c r="G285" s="39"/>
@@ -30902,7 +30902,7 @@
       <c r="J285" s="39"/>
       <c r="K285" s="40"/>
       <c r="L285" s="38" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="M285" s="39"/>
       <c r="N285" s="39"/>
@@ -30930,7 +30930,7 @@
     <row r="286" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C286" s="15"/>
       <c r="E286" s="38" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F286" s="39"/>
       <c r="G286" s="39"/>
@@ -30939,7 +30939,7 @@
       <c r="J286" s="39"/>
       <c r="K286" s="40"/>
       <c r="L286" s="38" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M286" s="39"/>
       <c r="N286" s="39"/>
@@ -31000,7 +31000,7 @@
     <row r="288" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C288" s="15"/>
       <c r="E288" s="76" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F288" s="76"/>
       <c r="G288" s="76"/>
@@ -31068,7 +31068,7 @@
     <row r="290" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C290" s="15"/>
       <c r="E290" s="76" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F290" s="76"/>
       <c r="G290" s="76"/>
@@ -31103,7 +31103,7 @@
     <row r="291" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C291" s="15"/>
       <c r="E291" s="76" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F291" s="76"/>
       <c r="G291" s="76"/>
@@ -31175,7 +31175,7 @@
         <v>5.8.2.</v>
       </c>
       <c r="E293" s="76" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F293" s="76"/>
       <c r="G293" s="76"/>
@@ -31210,7 +31210,7 @@
     <row r="294" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C294" s="15"/>
       <c r="E294" s="76" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F294" s="76"/>
       <c r="G294" s="76"/>
@@ -31245,7 +31245,7 @@
     <row r="295" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C295" s="15"/>
       <c r="E295" s="76" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F295" s="76"/>
       <c r="G295" s="76"/>
@@ -31280,7 +31280,7 @@
     <row r="296" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C296" s="15"/>
       <c r="E296" s="76" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F296" s="76"/>
       <c r="G296" s="76"/>
@@ -31323,14 +31323,14 @@
         <v>5.8.3.</v>
       </c>
       <c r="E298" s="76" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AH298" s="76"/>
     </row>
     <row r="299" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C299" s="15"/>
       <c r="E299" s="76" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F299" s="76"/>
       <c r="G299" s="76"/>
@@ -31365,7 +31365,7 @@
     <row r="300" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C300" s="15"/>
       <c r="E300" s="76" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F300" s="54"/>
       <c r="G300" s="54"/>
@@ -31436,7 +31436,7 @@
         <v>5.8.4.</v>
       </c>
       <c r="E302" s="76" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F302" s="76"/>
       <c r="G302" s="76"/>
@@ -31471,7 +31471,7 @@
     <row r="303" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C303" s="15"/>
       <c r="E303" s="76" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F303" s="76"/>
       <c r="G303" s="76"/>
@@ -31506,7 +31506,7 @@
     <row r="304" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C304" s="15"/>
       <c r="E304" s="76" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F304" s="76"/>
       <c r="G304" s="76"/>
@@ -31612,7 +31612,7 @@
         <v>5.9.</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E307" s="76"/>
       <c r="F307" s="76"/>
@@ -31652,7 +31652,7 @@
         <v>5.9.1.</v>
       </c>
       <c r="E308" s="76" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F308" s="76"/>
       <c r="G308" s="76"/>
@@ -31688,7 +31688,7 @@
       <c r="C309" s="76"/>
       <c r="D309" s="76"/>
       <c r="E309" s="76" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F309" s="76"/>
       <c r="G309" s="76"/>
@@ -31724,7 +31724,7 @@
       <c r="C310" s="76"/>
       <c r="D310" s="76"/>
       <c r="E310" s="76" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F310" s="76"/>
       <c r="G310" s="76"/>
@@ -31794,7 +31794,7 @@
       <c r="C312" s="76"/>
       <c r="D312" s="76"/>
       <c r="E312" s="76" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F312" s="76"/>
       <c r="G312" s="76"/>
@@ -31830,7 +31830,7 @@
       <c r="C313" s="76"/>
       <c r="D313" s="76"/>
       <c r="E313" s="76" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F313" s="76"/>
       <c r="G313" s="76"/>
@@ -31866,7 +31866,7 @@
       <c r="C314" s="76"/>
       <c r="D314" s="76"/>
       <c r="E314" s="108" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="F314" s="76"/>
       <c r="G314" s="76"/>
@@ -31902,7 +31902,7 @@
       <c r="C315" s="107"/>
       <c r="D315" s="107"/>
       <c r="E315" s="108" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F315" s="107"/>
       <c r="G315" s="107"/>
@@ -32008,7 +32008,7 @@
         <v>5.9.2.</v>
       </c>
       <c r="E318" s="76" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F318" s="76"/>
       <c r="G318" s="76"/>
@@ -32044,7 +32044,7 @@
       <c r="C319" s="76"/>
       <c r="D319" s="76"/>
       <c r="E319" s="76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F319" s="76"/>
       <c r="G319" s="76"/>
@@ -32080,7 +32080,7 @@
       <c r="C320" s="76"/>
       <c r="D320" s="76"/>
       <c r="E320" s="76" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F320" s="76"/>
       <c r="G320" s="76"/>
@@ -32153,7 +32153,7 @@
         <v>5.9.3.</v>
       </c>
       <c r="E322" s="76" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F322" s="76"/>
       <c r="G322" s="76"/>
@@ -32189,7 +32189,7 @@
       <c r="C323" s="76"/>
       <c r="D323" s="76"/>
       <c r="E323" s="76" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F323" s="76"/>
       <c r="G323" s="76"/>
@@ -32262,7 +32262,7 @@
         <v>48</v>
       </c>
       <c r="F325" s="76" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G325" s="76"/>
       <c r="H325" s="76"/>
@@ -32300,7 +32300,7 @@
         <v>50</v>
       </c>
       <c r="F326" s="76" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G326" s="76"/>
       <c r="H326" s="76"/>
@@ -32369,7 +32369,7 @@
       <c r="C328" s="76"/>
       <c r="D328" s="76"/>
       <c r="E328" s="76" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F328" s="76"/>
       <c r="G328" s="76"/>
@@ -32439,7 +32439,7 @@
       <c r="C330" s="76"/>
       <c r="D330" s="76"/>
       <c r="E330" s="76" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F330" s="76"/>
       <c r="G330" s="76"/>
@@ -32509,7 +32509,7 @@
       <c r="C332" s="76"/>
       <c r="D332" s="76"/>
       <c r="E332" s="35" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F332" s="36"/>
       <c r="G332" s="36"/>
@@ -32521,7 +32521,7 @@
       <c r="M332" s="36"/>
       <c r="N332" s="36"/>
       <c r="O332" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P332" s="36"/>
       <c r="Q332" s="36"/>
@@ -32547,10 +32547,10 @@
       <c r="C333" s="76"/>
       <c r="D333" s="76"/>
       <c r="E333" s="27" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="O333" s="27" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="AE333" s="76"/>
       <c r="AF333" s="18"/>
@@ -32571,7 +32571,7 @@
       <c r="M334" s="30"/>
       <c r="N334" s="30"/>
       <c r="O334" s="29" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P334" s="30"/>
       <c r="Q334" s="30"/>
@@ -32631,7 +32631,7 @@
       <c r="C336" s="76"/>
       <c r="D336" s="76"/>
       <c r="E336" s="76" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F336" s="76"/>
       <c r="G336" s="76"/>
@@ -32667,7 +32667,7 @@
       <c r="C337" s="76"/>
       <c r="D337" s="76"/>
       <c r="E337" s="76" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F337" s="76"/>
       <c r="G337" s="76"/>
@@ -32739,7 +32739,7 @@
         <v>5.10.</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E339" s="76"/>
       <c r="F339" s="76"/>
@@ -32779,7 +32779,7 @@
         <v>5.10.1.</v>
       </c>
       <c r="E340" s="76" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F340" s="76"/>
       <c r="G340" s="76"/>
@@ -32815,7 +32815,7 @@
       <c r="C341" s="76"/>
       <c r="D341" s="76"/>
       <c r="E341" s="76" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F341" s="76"/>
       <c r="G341" s="76"/>
@@ -32851,7 +32851,7 @@
       <c r="C342" s="76"/>
       <c r="D342" s="76"/>
       <c r="E342" s="76" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F342" s="76"/>
       <c r="G342" s="76"/>
@@ -32887,7 +32887,7 @@
       <c r="C343" s="76"/>
       <c r="D343" s="76"/>
       <c r="E343" s="76" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F343" s="76"/>
       <c r="G343" s="76"/>
@@ -32957,7 +32957,7 @@
       <c r="C345" s="76"/>
       <c r="D345" s="76"/>
       <c r="E345" s="76" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F345" s="76"/>
       <c r="G345" s="76"/>
@@ -32993,7 +32993,7 @@
       <c r="C346" s="76"/>
       <c r="D346" s="76"/>
       <c r="E346" s="76" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F346" s="76"/>
       <c r="G346" s="76"/>
@@ -33029,7 +33029,7 @@
       <c r="C347" s="76"/>
       <c r="D347" s="76"/>
       <c r="E347" s="76" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F347" s="76"/>
       <c r="G347" s="76"/>
@@ -33102,7 +33102,7 @@
         <v>5.10.2.</v>
       </c>
       <c r="E349" s="108" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F349" s="108"/>
       <c r="G349" s="108"/>
@@ -33138,7 +33138,7 @@
       <c r="C350" s="76"/>
       <c r="D350" s="76"/>
       <c r="E350" s="108" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F350" s="108"/>
       <c r="G350" s="108"/>
@@ -33174,7 +33174,7 @@
       <c r="C351" s="76"/>
       <c r="D351" s="76"/>
       <c r="E351" s="108" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F351" s="108"/>
       <c r="G351" s="108"/>
@@ -33244,7 +33244,7 @@
       <c r="C353" s="76"/>
       <c r="D353" s="76"/>
       <c r="E353" s="108" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F353" s="108"/>
       <c r="G353" s="108"/>
@@ -33280,7 +33280,7 @@
       <c r="C354" s="76"/>
       <c r="D354" s="76"/>
       <c r="E354" s="108" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F354" s="108"/>
       <c r="G354" s="108"/>
@@ -33350,7 +33350,7 @@
       <c r="C356" s="76"/>
       <c r="D356" s="76"/>
       <c r="E356" s="108" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F356" s="108"/>
       <c r="G356" s="108"/>
@@ -33386,7 +33386,7 @@
       <c r="C357" s="76"/>
       <c r="D357" s="76"/>
       <c r="E357" s="108" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F357" s="108"/>
       <c r="G357" s="108"/>
@@ -33456,7 +33456,7 @@
       <c r="C359" s="76"/>
       <c r="D359" s="76"/>
       <c r="E359" s="76" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F359" s="76"/>
       <c r="G359" s="76"/>
@@ -33560,7 +33560,7 @@
       <c r="C362" s="76"/>
       <c r="D362" s="76"/>
       <c r="E362" s="76" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F362" s="76"/>
       <c r="G362" s="76"/>
@@ -34244,7 +34244,7 @@
         <v>5.11.</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E382" s="76"/>
       <c r="F382" s="76"/>
@@ -34284,7 +34284,7 @@
         <v>5.11.1.</v>
       </c>
       <c r="E383" s="76" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F383" s="76"/>
       <c r="G383" s="76"/>
@@ -34320,7 +34320,7 @@
       <c r="C384" s="76"/>
       <c r="D384" s="15"/>
       <c r="E384" s="76" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F384" s="76"/>
       <c r="G384" s="76"/>
@@ -34356,7 +34356,7 @@
       <c r="C385" s="76"/>
       <c r="D385" s="15"/>
       <c r="E385" s="76" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F385" s="76"/>
       <c r="G385" s="76"/>
@@ -34426,7 +34426,7 @@
       <c r="C387" s="76"/>
       <c r="D387" s="76"/>
       <c r="E387" s="76" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F387" s="76"/>
       <c r="G387" s="76"/>
@@ -34496,7 +34496,7 @@
       <c r="C389" s="76"/>
       <c r="D389" s="76"/>
       <c r="E389" s="76" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F389" s="76"/>
       <c r="G389" s="76"/>
@@ -34532,7 +34532,7 @@
       <c r="C390" s="76"/>
       <c r="D390" s="76"/>
       <c r="E390" s="76" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F390" s="76"/>
       <c r="G390" s="76"/>
@@ -34568,7 +34568,7 @@
       <c r="C391" s="76"/>
       <c r="D391" s="76"/>
       <c r="E391" s="76" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F391" s="76"/>
       <c r="G391" s="76"/>
@@ -34638,7 +34638,7 @@
       <c r="C393" s="76"/>
       <c r="D393" s="76"/>
       <c r="E393" s="76" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F393" s="76"/>
       <c r="G393" s="76"/>
@@ -34674,7 +34674,7 @@
       <c r="C394" s="76"/>
       <c r="D394" s="76"/>
       <c r="E394" s="76" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F394" s="76"/>
       <c r="G394" s="76"/>
@@ -34744,7 +34744,7 @@
       <c r="C396" s="76"/>
       <c r="D396" s="76"/>
       <c r="E396" s="76" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F396" s="76"/>
       <c r="G396" s="76"/>
@@ -34780,7 +34780,7 @@
       <c r="C397" s="76"/>
       <c r="D397" s="76"/>
       <c r="E397" s="76" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F397" s="76"/>
       <c r="G397" s="76"/>
@@ -34853,7 +34853,7 @@
         <v>5.11.2.</v>
       </c>
       <c r="E399" s="76" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F399" s="76"/>
       <c r="G399" s="76"/>
@@ -34889,7 +34889,7 @@
       <c r="C400" s="76"/>
       <c r="D400" s="76"/>
       <c r="E400" s="76" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F400" s="76"/>
       <c r="G400" s="76"/>
@@ -34925,7 +34925,7 @@
       <c r="C401" s="76"/>
       <c r="D401" s="76"/>
       <c r="E401" s="76" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F401" s="76"/>
       <c r="G401" s="76"/>
@@ -34961,7 +34961,7 @@
       <c r="C402" s="76"/>
       <c r="D402" s="76"/>
       <c r="E402" s="76" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F402" s="76"/>
       <c r="G402" s="76"/>
@@ -35031,7 +35031,7 @@
       <c r="C404" s="76"/>
       <c r="D404" s="76"/>
       <c r="E404" s="76" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F404" s="76"/>
       <c r="G404" s="76"/>
@@ -35104,7 +35104,7 @@
         <v>5.11.3.</v>
       </c>
       <c r="E406" s="76" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F406" s="76"/>
       <c r="G406" s="76"/>
@@ -35140,7 +35140,7 @@
       <c r="C407" s="76"/>
       <c r="D407" s="76"/>
       <c r="E407" s="76" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F407" s="76"/>
       <c r="G407" s="76"/>
@@ -35176,7 +35176,7 @@
       <c r="C408" s="76"/>
       <c r="D408" s="76"/>
       <c r="E408" s="76" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F408" s="76"/>
       <c r="G408" s="76"/>
@@ -35246,7 +35246,7 @@
       <c r="C410" s="76"/>
       <c r="D410" s="76"/>
       <c r="E410" s="76" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F410" s="76"/>
       <c r="G410" s="76"/>
@@ -35282,7 +35282,7 @@
       <c r="C411" s="76"/>
       <c r="D411" s="76"/>
       <c r="E411" s="76" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F411" s="76"/>
       <c r="G411" s="76"/>
@@ -35352,7 +35352,7 @@
       <c r="C413" s="76"/>
       <c r="D413" s="76"/>
       <c r="E413" s="76" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F413" s="76"/>
       <c r="G413" s="76"/>
@@ -35425,7 +35425,7 @@
         <v>5.12.</v>
       </c>
       <c r="D415" s="51" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E415" s="98"/>
       <c r="F415" s="98"/>
@@ -35466,7 +35466,7 @@
         <v>5.12.1.</v>
       </c>
       <c r="E416" s="98" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F416" s="98"/>
       <c r="G416" s="98"/>
@@ -35504,7 +35504,7 @@
       <c r="C417" s="98"/>
       <c r="D417" s="100"/>
       <c r="E417" s="98" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="F417" s="98"/>
       <c r="G417" s="98"/>
@@ -35542,7 +35542,7 @@
       <c r="C418" s="98"/>
       <c r="D418" s="100"/>
       <c r="E418" s="98" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F418" s="98"/>
       <c r="G418" s="98"/>
@@ -35580,7 +35580,7 @@
       <c r="C419" s="98"/>
       <c r="D419" s="100"/>
       <c r="E419" s="98" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F419" s="98"/>
       <c r="G419" s="98"/>
@@ -35654,7 +35654,7 @@
       <c r="C421" s="98"/>
       <c r="D421" s="100"/>
       <c r="E421" s="98" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F421" s="98"/>
       <c r="G421" s="98"/>
@@ -35692,7 +35692,7 @@
       <c r="C422" s="98"/>
       <c r="D422" s="100"/>
       <c r="E422" s="98" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="F422" s="98"/>
       <c r="G422" s="98"/>
@@ -35769,7 +35769,7 @@
         <v>5.12.1.</v>
       </c>
       <c r="E424" s="98" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F424" s="98"/>
       <c r="G424" s="98"/>
@@ -35807,7 +35807,7 @@
       <c r="C425" s="98"/>
       <c r="D425" s="98"/>
       <c r="E425" s="98" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F425" s="98"/>
       <c r="G425" s="51"/>
@@ -35845,7 +35845,7 @@
       <c r="C426" s="98"/>
       <c r="D426" s="98"/>
       <c r="E426" s="98" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="F426" s="98"/>
       <c r="G426" s="51"/>
@@ -35883,7 +35883,7 @@
       <c r="C427" s="98"/>
       <c r="D427" s="98"/>
       <c r="E427" s="98" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="F427" s="98"/>
       <c r="G427" s="51"/>
@@ -35921,7 +35921,7 @@
       <c r="C428" s="98"/>
       <c r="D428" s="98"/>
       <c r="E428" s="98" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="F428" s="98"/>
       <c r="G428" s="51"/>
@@ -35998,7 +35998,7 @@
         <v>5.12.2.</v>
       </c>
       <c r="E430" s="98" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F430" s="98"/>
       <c r="G430" s="98"/>
@@ -36036,7 +36036,7 @@
       <c r="C431" s="98"/>
       <c r="D431" s="100"/>
       <c r="E431" s="98" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="F431" s="98"/>
       <c r="G431" s="98"/>
@@ -36113,7 +36113,7 @@
         <v>5.12.3.</v>
       </c>
       <c r="E433" s="98" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F433" s="98"/>
       <c r="G433" s="98"/>
@@ -36150,7 +36150,7 @@
       <c r="C434" s="98"/>
       <c r="D434" s="58"/>
       <c r="E434" s="98" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="F434" s="98"/>
       <c r="G434" s="98"/>
@@ -36187,7 +36187,7 @@
       <c r="C435" s="98"/>
       <c r="D435" s="58"/>
       <c r="E435" s="98" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="F435" s="98"/>
       <c r="G435" s="98"/>
@@ -36224,7 +36224,7 @@
       <c r="C436" s="98"/>
       <c r="D436" s="58"/>
       <c r="E436" s="98" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F436" s="98"/>
       <c r="G436" s="98"/>
@@ -36296,7 +36296,7 @@
       <c r="C438" s="98"/>
       <c r="D438" s="58"/>
       <c r="E438" s="98" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F438" s="98"/>
       <c r="G438" s="98"/>
@@ -36371,7 +36371,7 @@
         <v>5.12.4.</v>
       </c>
       <c r="E440" s="98" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F440" s="98"/>
       <c r="G440" s="98"/>
@@ -36408,7 +36408,7 @@
       <c r="C441" s="98"/>
       <c r="D441" s="58"/>
       <c r="E441" s="98" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F441" s="98"/>
       <c r="G441" s="98"/>
@@ -36480,7 +36480,7 @@
         <v>5.13.</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E443" s="76"/>
       <c r="F443" s="76"/>
@@ -36516,7 +36516,7 @@
     <row r="444" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C444" s="76"/>
       <c r="D444" s="76" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E444" s="76"/>
       <c r="F444" s="76"/>
@@ -36552,7 +36552,7 @@
     <row r="445" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C445" s="76"/>
       <c r="D445" s="76" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E445" s="76"/>
       <c r="F445" s="76"/>
@@ -36622,7 +36622,7 @@
       <c r="C447" s="76"/>
       <c r="D447" s="76"/>
       <c r="E447" s="55" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F447" s="56"/>
       <c r="G447" s="56"/>
@@ -36660,12 +36660,12 @@
       <c r="C448" s="76"/>
       <c r="D448" s="76"/>
       <c r="E448" s="38" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F448" s="39"/>
       <c r="G448" s="41"/>
       <c r="H448" s="38" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="I448" s="39"/>
       <c r="J448" s="39"/>
@@ -36698,12 +36698,12 @@
       <c r="C449" s="76"/>
       <c r="D449" s="76"/>
       <c r="E449" s="19" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F449" s="20"/>
       <c r="G449" s="30"/>
       <c r="H449" s="19" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="I449" s="20"/>
       <c r="J449" s="20"/>
@@ -36769,7 +36769,7 @@
     <row r="451" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C451" s="76"/>
       <c r="D451" s="76" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E451" s="76"/>
       <c r="F451" s="76"/>
@@ -36805,7 +36805,7 @@
     <row r="452" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C452" s="76"/>
       <c r="D452" s="76" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E452" s="76"/>
       <c r="F452" s="76"/>
@@ -36878,7 +36878,7 @@
         <v>5.14.</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E454" s="76"/>
       <c r="F454" s="76"/>
@@ -36918,7 +36918,7 @@
         <v>5.14.1.</v>
       </c>
       <c r="E455" s="76" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F455" s="76"/>
       <c r="G455" s="76"/>
@@ -36954,7 +36954,7 @@
       <c r="C456" s="76"/>
       <c r="D456" s="76"/>
       <c r="E456" s="76" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F456" s="76"/>
       <c r="G456" s="76"/>
@@ -37024,14 +37024,14 @@
       <c r="C458" s="76"/>
       <c r="D458" s="76"/>
       <c r="E458" s="35" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F458" s="36"/>
       <c r="G458" s="36"/>
       <c r="H458" s="36"/>
       <c r="I458" s="36"/>
       <c r="J458" s="35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K458" s="36"/>
       <c r="L458" s="36"/>
@@ -37051,7 +37051,7 @@
       <c r="Z458" s="36"/>
       <c r="AA458" s="37"/>
       <c r="AB458" s="35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AC458" s="36"/>
       <c r="AD458" s="36"/>
@@ -37064,14 +37064,14 @@
       <c r="C459" s="76"/>
       <c r="D459" s="76"/>
       <c r="E459" s="38" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F459" s="39"/>
       <c r="G459" s="39"/>
       <c r="H459" s="39"/>
       <c r="I459" s="40"/>
       <c r="J459" s="38" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K459" s="39"/>
       <c r="L459" s="39"/>
@@ -37091,7 +37091,7 @@
       <c r="Z459" s="39"/>
       <c r="AA459" s="40"/>
       <c r="AB459" s="38" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AC459" s="39"/>
       <c r="AD459" s="39"/>
@@ -37104,14 +37104,14 @@
       <c r="C460" s="76"/>
       <c r="D460" s="76"/>
       <c r="E460" s="38" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F460" s="39"/>
       <c r="G460" s="39"/>
       <c r="H460" s="39"/>
       <c r="I460" s="40"/>
       <c r="J460" s="38" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K460" s="39"/>
       <c r="L460" s="39"/>
@@ -37131,7 +37131,7 @@
       <c r="Z460" s="39"/>
       <c r="AA460" s="40"/>
       <c r="AB460" s="38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AC460" s="39"/>
       <c r="AD460" s="39"/>
@@ -37144,14 +37144,14 @@
       <c r="C461" s="76"/>
       <c r="D461" s="76"/>
       <c r="E461" s="38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F461" s="39"/>
       <c r="G461" s="39"/>
       <c r="H461" s="39"/>
       <c r="I461" s="40"/>
       <c r="J461" s="38" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K461" s="39"/>
       <c r="L461" s="39"/>
@@ -37171,7 +37171,7 @@
       <c r="Z461" s="39"/>
       <c r="AA461" s="40"/>
       <c r="AB461" s="38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AC461" s="39"/>
       <c r="AD461" s="39"/>
@@ -37217,7 +37217,7 @@
       <c r="C463" s="76"/>
       <c r="D463" s="76"/>
       <c r="E463" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F463" s="76"/>
       <c r="G463" s="76"/>
@@ -37253,7 +37253,7 @@
       <c r="C464" s="76"/>
       <c r="D464" s="76"/>
       <c r="E464" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F464" s="76"/>
       <c r="G464" s="76"/>
@@ -37322,7 +37322,7 @@
       <c r="C466" s="76"/>
       <c r="D466" s="76"/>
       <c r="E466" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F466" s="76"/>
       <c r="G466" s="76"/>
@@ -37358,7 +37358,7 @@
       <c r="C467" s="76"/>
       <c r="D467" s="76"/>
       <c r="E467" s="76" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F467" s="76"/>
       <c r="G467" s="76"/>
@@ -37431,7 +37431,7 @@
         <v>5.14.2.</v>
       </c>
       <c r="E469" s="76" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F469" s="76"/>
       <c r="G469" s="76"/>
@@ -37467,7 +37467,7 @@
       <c r="C470" s="76"/>
       <c r="D470" s="76"/>
       <c r="E470" s="76" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F470" s="76"/>
       <c r="G470" s="76"/>
@@ -37503,7 +37503,7 @@
       <c r="C471" s="76"/>
       <c r="D471" s="76"/>
       <c r="E471" s="76" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F471" s="76"/>
       <c r="G471" s="76"/>
@@ -37573,7 +37573,7 @@
       <c r="C473" s="76"/>
       <c r="D473" s="76"/>
       <c r="E473" s="76" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F473" s="76"/>
       <c r="G473" s="76"/>
@@ -37609,7 +37609,7 @@
       <c r="C474" s="76"/>
       <c r="D474" s="76"/>
       <c r="E474" s="76" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F474" s="76"/>
       <c r="G474" s="76"/>
@@ -37645,7 +37645,7 @@
       <c r="C475" s="76"/>
       <c r="D475" s="76"/>
       <c r="E475" s="76" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F475" s="76"/>
       <c r="G475" s="76"/>
@@ -37715,7 +37715,7 @@
       <c r="C477" s="76"/>
       <c r="D477" s="76"/>
       <c r="E477" s="76" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F477" s="76"/>
       <c r="G477" s="76"/>
@@ -37751,7 +37751,7 @@
       <c r="C478" s="76"/>
       <c r="D478" s="76"/>
       <c r="E478" s="76" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F478" s="76"/>
       <c r="G478" s="76"/>
@@ -37824,7 +37824,7 @@
         <v>5.14.3.</v>
       </c>
       <c r="E480" s="76" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F480" s="76"/>
       <c r="G480" s="76"/>
@@ -37860,7 +37860,7 @@
       <c r="C481" s="76"/>
       <c r="D481" s="76"/>
       <c r="E481" s="76" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F481" s="76"/>
       <c r="G481" s="76"/>
@@ -37896,7 +37896,7 @@
       <c r="C482" s="76"/>
       <c r="D482" s="76"/>
       <c r="E482" s="76" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F482" s="76"/>
       <c r="G482" s="76"/>
@@ -37966,7 +37966,7 @@
       <c r="C484" s="76"/>
       <c r="D484" s="76"/>
       <c r="E484" s="76" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F484" s="76"/>
       <c r="G484" s="76"/>
@@ -38039,7 +38039,7 @@
         <v>48</v>
       </c>
       <c r="F486" s="76" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G486" s="76"/>
       <c r="H486" s="76"/>
@@ -38077,7 +38077,7 @@
         <v>50</v>
       </c>
       <c r="F487" s="76" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G487" s="76"/>
       <c r="H487" s="76"/>
@@ -38113,10 +38113,10 @@
       <c r="D488" s="76"/>
       <c r="E488" s="76"/>
       <c r="F488" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G488" s="76" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I488" s="76"/>
       <c r="J488" s="76"/>
@@ -38150,10 +38150,10 @@
       <c r="D489" s="76"/>
       <c r="E489" s="76"/>
       <c r="F489" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G489" s="108" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="I489" s="76"/>
       <c r="J489" s="76"/>
@@ -38255,7 +38255,7 @@
         <v>5.15.</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F492" s="76"/>
       <c r="G492" s="76"/>
@@ -38294,7 +38294,7 @@
         <v>5.15.1.</v>
       </c>
       <c r="E493" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F493" s="76"/>
       <c r="G493" s="76"/>
@@ -38330,7 +38330,7 @@
       <c r="C494" s="76"/>
       <c r="D494" s="76"/>
       <c r="E494" s="76" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F494" s="76"/>
       <c r="G494" s="76"/>
@@ -38401,7 +38401,7 @@
         <v>5.15.2.</v>
       </c>
       <c r="E496" s="4" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F496" s="76"/>
       <c r="G496" s="76"/>
@@ -38437,7 +38437,7 @@
       <c r="C497" s="76"/>
       <c r="D497" s="76"/>
       <c r="E497" s="98" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F497" s="76"/>
       <c r="G497" s="76"/>
@@ -38473,7 +38473,7 @@
       <c r="C498" s="95"/>
       <c r="D498" s="95"/>
       <c r="E498" s="98" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F498" s="95"/>
       <c r="G498" s="95"/>
@@ -38509,7 +38509,7 @@
       <c r="C499" s="76"/>
       <c r="D499" s="76"/>
       <c r="E499" s="45" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F499" s="76"/>
       <c r="G499" s="76"/>
@@ -38578,241 +38578,241 @@
     <row r="501" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C501" s="76"/>
       <c r="D501" s="76"/>
-      <c r="E501" s="152" t="s">
-        <v>266</v>
-      </c>
-      <c r="F501" s="152"/>
-      <c r="G501" s="152"/>
-      <c r="H501" s="152"/>
-      <c r="I501" s="152"/>
-      <c r="J501" s="152"/>
-      <c r="K501" s="152"/>
-      <c r="L501" s="152"/>
-      <c r="M501" s="153" t="s">
-        <v>267</v>
-      </c>
-      <c r="N501" s="153"/>
-      <c r="O501" s="153"/>
-      <c r="P501" s="153"/>
-      <c r="Q501" s="153"/>
-      <c r="R501" s="153"/>
-      <c r="S501" s="153"/>
-      <c r="T501" s="153"/>
-      <c r="U501" s="153"/>
-      <c r="V501" s="153" t="s">
-        <v>487</v>
-      </c>
-      <c r="W501" s="153"/>
-      <c r="X501" s="153"/>
-      <c r="Y501" s="153"/>
-      <c r="Z501" s="153"/>
-      <c r="AA501" s="153"/>
-      <c r="AB501" s="153"/>
-      <c r="AC501" s="153"/>
-      <c r="AD501" s="153"/>
-      <c r="AE501" s="153"/>
-      <c r="AF501" s="153"/>
-      <c r="AG501" s="153"/>
+      <c r="E501" s="144" t="s">
+        <v>262</v>
+      </c>
+      <c r="F501" s="144"/>
+      <c r="G501" s="144"/>
+      <c r="H501" s="144"/>
+      <c r="I501" s="144"/>
+      <c r="J501" s="144"/>
+      <c r="K501" s="144"/>
+      <c r="L501" s="144"/>
+      <c r="M501" s="145" t="s">
+        <v>263</v>
+      </c>
+      <c r="N501" s="145"/>
+      <c r="O501" s="145"/>
+      <c r="P501" s="145"/>
+      <c r="Q501" s="145"/>
+      <c r="R501" s="145"/>
+      <c r="S501" s="145"/>
+      <c r="T501" s="145"/>
+      <c r="U501" s="145"/>
+      <c r="V501" s="145" t="s">
+        <v>483</v>
+      </c>
+      <c r="W501" s="145"/>
+      <c r="X501" s="145"/>
+      <c r="Y501" s="145"/>
+      <c r="Z501" s="145"/>
+      <c r="AA501" s="145"/>
+      <c r="AB501" s="145"/>
+      <c r="AC501" s="145"/>
+      <c r="AD501" s="145"/>
+      <c r="AE501" s="145"/>
+      <c r="AF501" s="145"/>
+      <c r="AG501" s="145"/>
       <c r="AH501" s="76"/>
     </row>
     <row r="502" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C502" s="76"/>
       <c r="D502" s="76"/>
-      <c r="E502" s="154" t="s">
-        <v>259</v>
-      </c>
-      <c r="F502" s="154"/>
-      <c r="G502" s="154"/>
-      <c r="H502" s="154"/>
-      <c r="I502" s="154"/>
-      <c r="J502" s="154"/>
-      <c r="K502" s="154"/>
-      <c r="L502" s="154"/>
-      <c r="M502" s="155" t="s">
-        <v>515</v>
-      </c>
-      <c r="N502" s="155"/>
-      <c r="O502" s="155"/>
-      <c r="P502" s="155"/>
-      <c r="Q502" s="155"/>
-      <c r="R502" s="155"/>
-      <c r="S502" s="155"/>
-      <c r="T502" s="155"/>
-      <c r="U502" s="155"/>
-      <c r="V502" s="155" t="s">
-        <v>516</v>
-      </c>
-      <c r="W502" s="155"/>
-      <c r="X502" s="155"/>
-      <c r="Y502" s="155"/>
-      <c r="Z502" s="155"/>
-      <c r="AA502" s="155"/>
-      <c r="AB502" s="155"/>
-      <c r="AC502" s="155"/>
-      <c r="AD502" s="155"/>
-      <c r="AE502" s="155"/>
-      <c r="AF502" s="155"/>
-      <c r="AG502" s="155"/>
+      <c r="E502" s="142" t="s">
+        <v>255</v>
+      </c>
+      <c r="F502" s="142"/>
+      <c r="G502" s="142"/>
+      <c r="H502" s="142"/>
+      <c r="I502" s="142"/>
+      <c r="J502" s="142"/>
+      <c r="K502" s="142"/>
+      <c r="L502" s="142"/>
+      <c r="M502" s="143" t="s">
+        <v>511</v>
+      </c>
+      <c r="N502" s="143"/>
+      <c r="O502" s="143"/>
+      <c r="P502" s="143"/>
+      <c r="Q502" s="143"/>
+      <c r="R502" s="143"/>
+      <c r="S502" s="143"/>
+      <c r="T502" s="143"/>
+      <c r="U502" s="143"/>
+      <c r="V502" s="143" t="s">
+        <v>512</v>
+      </c>
+      <c r="W502" s="143"/>
+      <c r="X502" s="143"/>
+      <c r="Y502" s="143"/>
+      <c r="Z502" s="143"/>
+      <c r="AA502" s="143"/>
+      <c r="AB502" s="143"/>
+      <c r="AC502" s="143"/>
+      <c r="AD502" s="143"/>
+      <c r="AE502" s="143"/>
+      <c r="AF502" s="143"/>
+      <c r="AG502" s="143"/>
       <c r="AH502" s="76"/>
     </row>
     <row r="503" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C503" s="76"/>
       <c r="D503" s="76"/>
-      <c r="E503" s="154" t="s">
+      <c r="E503" s="142" t="s">
+        <v>256</v>
+      </c>
+      <c r="F503" s="142"/>
+      <c r="G503" s="142"/>
+      <c r="H503" s="142"/>
+      <c r="I503" s="142"/>
+      <c r="J503" s="142"/>
+      <c r="K503" s="142"/>
+      <c r="L503" s="142"/>
+      <c r="M503" s="143" t="s">
         <v>260</v>
       </c>
-      <c r="F503" s="154"/>
-      <c r="G503" s="154"/>
-      <c r="H503" s="154"/>
-      <c r="I503" s="154"/>
-      <c r="J503" s="154"/>
-      <c r="K503" s="154"/>
-      <c r="L503" s="154"/>
-      <c r="M503" s="155" t="s">
-        <v>264</v>
-      </c>
-      <c r="N503" s="155"/>
-      <c r="O503" s="155"/>
-      <c r="P503" s="155"/>
-      <c r="Q503" s="155"/>
-      <c r="R503" s="155"/>
-      <c r="S503" s="155"/>
-      <c r="T503" s="155"/>
-      <c r="U503" s="155"/>
-      <c r="V503" s="155" t="s">
-        <v>489</v>
-      </c>
-      <c r="W503" s="155"/>
-      <c r="X503" s="155"/>
-      <c r="Y503" s="155"/>
-      <c r="Z503" s="155"/>
-      <c r="AA503" s="155"/>
-      <c r="AB503" s="155"/>
-      <c r="AC503" s="155"/>
-      <c r="AD503" s="155"/>
-      <c r="AE503" s="155"/>
-      <c r="AF503" s="155"/>
-      <c r="AG503" s="155"/>
+      <c r="N503" s="143"/>
+      <c r="O503" s="143"/>
+      <c r="P503" s="143"/>
+      <c r="Q503" s="143"/>
+      <c r="R503" s="143"/>
+      <c r="S503" s="143"/>
+      <c r="T503" s="143"/>
+      <c r="U503" s="143"/>
+      <c r="V503" s="143" t="s">
+        <v>485</v>
+      </c>
+      <c r="W503" s="143"/>
+      <c r="X503" s="143"/>
+      <c r="Y503" s="143"/>
+      <c r="Z503" s="143"/>
+      <c r="AA503" s="143"/>
+      <c r="AB503" s="143"/>
+      <c r="AC503" s="143"/>
+      <c r="AD503" s="143"/>
+      <c r="AE503" s="143"/>
+      <c r="AF503" s="143"/>
+      <c r="AG503" s="143"/>
       <c r="AH503" s="76"/>
     </row>
     <row r="504" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C504" s="76"/>
       <c r="D504" s="76"/>
-      <c r="E504" s="154" t="s">
+      <c r="E504" s="142" t="s">
+        <v>257</v>
+      </c>
+      <c r="F504" s="142"/>
+      <c r="G504" s="142"/>
+      <c r="H504" s="142"/>
+      <c r="I504" s="142"/>
+      <c r="J504" s="142"/>
+      <c r="K504" s="142"/>
+      <c r="L504" s="142"/>
+      <c r="M504" s="143" t="s">
         <v>261</v>
       </c>
-      <c r="F504" s="154"/>
-      <c r="G504" s="154"/>
-      <c r="H504" s="154"/>
-      <c r="I504" s="154"/>
-      <c r="J504" s="154"/>
-      <c r="K504" s="154"/>
-      <c r="L504" s="154"/>
-      <c r="M504" s="155" t="s">
-        <v>265</v>
-      </c>
-      <c r="N504" s="155"/>
-      <c r="O504" s="155"/>
-      <c r="P504" s="155"/>
-      <c r="Q504" s="155"/>
-      <c r="R504" s="155"/>
-      <c r="S504" s="155"/>
-      <c r="T504" s="155"/>
-      <c r="U504" s="155"/>
-      <c r="V504" s="155" t="s">
-        <v>490</v>
-      </c>
-      <c r="W504" s="155"/>
-      <c r="X504" s="155"/>
-      <c r="Y504" s="155"/>
-      <c r="Z504" s="155"/>
-      <c r="AA504" s="155"/>
-      <c r="AB504" s="155"/>
-      <c r="AC504" s="155"/>
-      <c r="AD504" s="155"/>
-      <c r="AE504" s="155"/>
-      <c r="AF504" s="155"/>
-      <c r="AG504" s="155"/>
+      <c r="N504" s="143"/>
+      <c r="O504" s="143"/>
+      <c r="P504" s="143"/>
+      <c r="Q504" s="143"/>
+      <c r="R504" s="143"/>
+      <c r="S504" s="143"/>
+      <c r="T504" s="143"/>
+      <c r="U504" s="143"/>
+      <c r="V504" s="143" t="s">
+        <v>486</v>
+      </c>
+      <c r="W504" s="143"/>
+      <c r="X504" s="143"/>
+      <c r="Y504" s="143"/>
+      <c r="Z504" s="143"/>
+      <c r="AA504" s="143"/>
+      <c r="AB504" s="143"/>
+      <c r="AC504" s="143"/>
+      <c r="AD504" s="143"/>
+      <c r="AE504" s="143"/>
+      <c r="AF504" s="143"/>
+      <c r="AG504" s="143"/>
       <c r="AH504" s="76"/>
     </row>
     <row r="505" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C505" s="76"/>
       <c r="D505" s="76"/>
-      <c r="E505" s="154" t="s">
-        <v>262</v>
-      </c>
-      <c r="F505" s="154"/>
-      <c r="G505" s="154"/>
-      <c r="H505" s="154"/>
-      <c r="I505" s="154"/>
-      <c r="J505" s="154"/>
-      <c r="K505" s="154"/>
-      <c r="L505" s="154"/>
-      <c r="M505" s="155">
+      <c r="E505" s="142" t="s">
+        <v>258</v>
+      </c>
+      <c r="F505" s="142"/>
+      <c r="G505" s="142"/>
+      <c r="H505" s="142"/>
+      <c r="I505" s="142"/>
+      <c r="J505" s="142"/>
+      <c r="K505" s="142"/>
+      <c r="L505" s="142"/>
+      <c r="M505" s="143">
         <v>86400</v>
       </c>
-      <c r="N505" s="155"/>
-      <c r="O505" s="155"/>
-      <c r="P505" s="155"/>
-      <c r="Q505" s="155"/>
-      <c r="R505" s="155"/>
-      <c r="S505" s="155"/>
-      <c r="T505" s="155"/>
-      <c r="U505" s="155"/>
-      <c r="V505" s="155" t="s">
-        <v>488</v>
-      </c>
-      <c r="W505" s="155"/>
-      <c r="X505" s="155"/>
-      <c r="Y505" s="155"/>
-      <c r="Z505" s="155"/>
-      <c r="AA505" s="155"/>
-      <c r="AB505" s="155"/>
-      <c r="AC505" s="155"/>
-      <c r="AD505" s="155"/>
-      <c r="AE505" s="155"/>
-      <c r="AF505" s="155"/>
-      <c r="AG505" s="155"/>
+      <c r="N505" s="143"/>
+      <c r="O505" s="143"/>
+      <c r="P505" s="143"/>
+      <c r="Q505" s="143"/>
+      <c r="R505" s="143"/>
+      <c r="S505" s="143"/>
+      <c r="T505" s="143"/>
+      <c r="U505" s="143"/>
+      <c r="V505" s="143" t="s">
+        <v>484</v>
+      </c>
+      <c r="W505" s="143"/>
+      <c r="X505" s="143"/>
+      <c r="Y505" s="143"/>
+      <c r="Z505" s="143"/>
+      <c r="AA505" s="143"/>
+      <c r="AB505" s="143"/>
+      <c r="AC505" s="143"/>
+      <c r="AD505" s="143"/>
+      <c r="AE505" s="143"/>
+      <c r="AF505" s="143"/>
+      <c r="AG505" s="143"/>
       <c r="AH505" s="76"/>
     </row>
     <row r="506" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C506" s="76"/>
       <c r="D506" s="76"/>
-      <c r="E506" s="155" t="s">
-        <v>263</v>
-      </c>
-      <c r="F506" s="155"/>
-      <c r="G506" s="155"/>
-      <c r="H506" s="155"/>
-      <c r="I506" s="155"/>
-      <c r="J506" s="155"/>
-      <c r="K506" s="155"/>
-      <c r="L506" s="155"/>
-      <c r="M506" s="155" t="b">
+      <c r="E506" s="143" t="s">
+        <v>259</v>
+      </c>
+      <c r="F506" s="143"/>
+      <c r="G506" s="143"/>
+      <c r="H506" s="143"/>
+      <c r="I506" s="143"/>
+      <c r="J506" s="143"/>
+      <c r="K506" s="143"/>
+      <c r="L506" s="143"/>
+      <c r="M506" s="143" t="b">
         <v>0</v>
       </c>
-      <c r="N506" s="155"/>
-      <c r="O506" s="155"/>
-      <c r="P506" s="155"/>
-      <c r="Q506" s="155"/>
-      <c r="R506" s="155"/>
-      <c r="S506" s="155"/>
-      <c r="T506" s="155"/>
-      <c r="U506" s="155"/>
-      <c r="V506" s="155" t="s">
-        <v>473</v>
-      </c>
-      <c r="W506" s="155"/>
-      <c r="X506" s="155"/>
-      <c r="Y506" s="155"/>
-      <c r="Z506" s="155"/>
-      <c r="AA506" s="155"/>
-      <c r="AB506" s="155"/>
-      <c r="AC506" s="155"/>
-      <c r="AD506" s="155"/>
-      <c r="AE506" s="155"/>
-      <c r="AF506" s="155"/>
-      <c r="AG506" s="155"/>
+      <c r="N506" s="143"/>
+      <c r="O506" s="143"/>
+      <c r="P506" s="143"/>
+      <c r="Q506" s="143"/>
+      <c r="R506" s="143"/>
+      <c r="S506" s="143"/>
+      <c r="T506" s="143"/>
+      <c r="U506" s="143"/>
+      <c r="V506" s="143" t="s">
+        <v>469</v>
+      </c>
+      <c r="W506" s="143"/>
+      <c r="X506" s="143"/>
+      <c r="Y506" s="143"/>
+      <c r="Z506" s="143"/>
+      <c r="AA506" s="143"/>
+      <c r="AB506" s="143"/>
+      <c r="AC506" s="143"/>
+      <c r="AD506" s="143"/>
+      <c r="AE506" s="143"/>
+      <c r="AF506" s="143"/>
+      <c r="AG506" s="143"/>
       <c r="AH506" s="76"/>
     </row>
     <row r="507" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -38890,7 +38890,7 @@
         <v>5.15.3.</v>
       </c>
       <c r="E509" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F509" s="76"/>
       <c r="G509" s="76"/>
@@ -38926,7 +38926,7 @@
       <c r="C510" s="76"/>
       <c r="D510" s="76"/>
       <c r="E510" s="76" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F510" s="76"/>
       <c r="G510" s="76"/>
@@ -38962,7 +38962,7 @@
       <c r="C511" s="76"/>
       <c r="D511" s="76"/>
       <c r="E511" s="76" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F511" s="76"/>
       <c r="G511" s="76"/>
@@ -39032,7 +39032,7 @@
       <c r="C513" s="76"/>
       <c r="D513" s="76"/>
       <c r="E513" s="76" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F513" s="76"/>
       <c r="G513" s="76"/>
@@ -39068,7 +39068,7 @@
       <c r="C514" s="76"/>
       <c r="D514" s="76"/>
       <c r="E514" s="76" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F514" s="76"/>
       <c r="G514" s="76"/>
@@ -39141,7 +39141,7 @@
         <v>5.15.4.</v>
       </c>
       <c r="E516" s="4" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F516" s="76"/>
       <c r="G516" s="76"/>
@@ -39179,7 +39179,7 @@
       <c r="C517" s="95"/>
       <c r="D517" s="95"/>
       <c r="E517" s="98" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F517" s="95"/>
       <c r="G517" s="95"/>
@@ -39298,7 +39298,7 @@
         <v>5.15.5.</v>
       </c>
       <c r="E519" s="4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F519" s="76"/>
       <c r="G519" s="76"/>
@@ -39334,7 +39334,7 @@
       <c r="C520" s="76"/>
       <c r="D520" s="76"/>
       <c r="E520" s="76" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F520" s="76"/>
       <c r="G520" s="76"/>
@@ -39407,7 +39407,7 @@
         <v>5.15.6.</v>
       </c>
       <c r="E522" s="4" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F522" s="76"/>
       <c r="G522" s="76"/>
@@ -39443,7 +39443,7 @@
       <c r="C523" s="76"/>
       <c r="D523" s="76"/>
       <c r="E523" s="76" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F523" s="76"/>
       <c r="G523" s="76"/>
@@ -39516,7 +39516,7 @@
         <v>5.15.7.</v>
       </c>
       <c r="E525" s="4" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F525" s="76"/>
       <c r="G525" s="76"/>
@@ -39552,7 +39552,7 @@
       <c r="C526" s="76"/>
       <c r="D526" s="15"/>
       <c r="E526" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F526" s="76"/>
       <c r="G526" s="76"/>
@@ -39588,7 +39588,7 @@
       <c r="C527" s="76"/>
       <c r="D527" s="15"/>
       <c r="E527" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F527" s="76"/>
       <c r="G527" s="76"/>
@@ -39660,7 +39660,7 @@
         <v>48</v>
       </c>
       <c r="F529" s="76" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G529" s="76"/>
       <c r="H529" s="76"/>
@@ -39696,7 +39696,7 @@
       <c r="D530" s="15"/>
       <c r="E530" s="15"/>
       <c r="F530" s="76" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G530" s="76"/>
       <c r="H530" s="76"/>
@@ -39732,7 +39732,7 @@
       <c r="D531" s="15"/>
       <c r="E531" s="15"/>
       <c r="F531" s="76" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G531" s="76"/>
       <c r="H531" s="76"/>
@@ -39768,7 +39768,7 @@
       <c r="D532" s="15"/>
       <c r="E532" s="15"/>
       <c r="F532" s="76" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G532" s="76"/>
       <c r="H532" s="76"/>
@@ -39806,7 +39806,7 @@
         <v>50</v>
       </c>
       <c r="F533" s="76" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G533" s="76"/>
       <c r="H533" s="76"/>
@@ -39842,7 +39842,7 @@
       <c r="D534" s="15"/>
       <c r="E534" s="15"/>
       <c r="F534" s="98" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="G534" s="76"/>
       <c r="H534" s="76"/>
@@ -39939,7 +39939,7 @@
         <v>5.16.</v>
       </c>
       <c r="D536" s="4" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E536" s="4"/>
       <c r="F536" s="4"/>
@@ -40063,7 +40063,7 @@
       <c r="C538" s="15"/>
       <c r="D538" s="46"/>
       <c r="E538" s="4" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F538" s="4"/>
       <c r="G538" s="4"/>
@@ -40184,7 +40184,7 @@
         <v>5.16.2.</v>
       </c>
       <c r="E540" s="76" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F540" s="76"/>
       <c r="G540" s="76"/>
@@ -40302,7 +40302,7 @@
       <c r="C542" s="4"/>
       <c r="D542" s="58"/>
       <c r="E542" s="76" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F542" s="76"/>
       <c r="G542" s="76"/>
@@ -40420,14 +40420,14 @@
       <c r="C544" s="4"/>
       <c r="D544" s="76"/>
       <c r="E544" s="43" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F544" s="24"/>
       <c r="G544" s="24"/>
       <c r="H544" s="24"/>
       <c r="I544" s="23"/>
       <c r="J544" s="43" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K544" s="24"/>
       <c r="L544" s="24"/>
@@ -40481,14 +40481,14 @@
     <row r="545" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D545" s="76"/>
       <c r="E545" s="22" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F545" s="25"/>
       <c r="G545" s="25"/>
       <c r="H545" s="25"/>
       <c r="I545" s="26"/>
       <c r="J545" s="22" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K545" s="25"/>
       <c r="L545" s="25"/>
@@ -40501,7 +40501,7 @@
       <c r="S545" s="25"/>
       <c r="T545" s="26"/>
       <c r="U545" s="22" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="V545" s="25"/>
       <c r="W545" s="25"/>
@@ -40520,14 +40520,14 @@
       <c r="C546" s="76"/>
       <c r="D546" s="76"/>
       <c r="E546" s="22" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F546" s="25"/>
       <c r="G546" s="25"/>
       <c r="H546" s="25"/>
       <c r="I546" s="26"/>
       <c r="J546" s="31" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K546" s="32"/>
       <c r="L546" s="32"/>
@@ -40540,7 +40540,7 @@
       <c r="S546" s="32"/>
       <c r="T546" s="33"/>
       <c r="U546" s="22" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="V546" s="25"/>
       <c r="W546" s="25"/>
@@ -40575,7 +40575,7 @@
       <c r="S547" s="30"/>
       <c r="T547" s="34"/>
       <c r="U547" s="19" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="V547" s="20"/>
       <c r="W547" s="20"/>
@@ -40594,14 +40594,14 @@
       <c r="C548" s="76"/>
       <c r="D548" s="76"/>
       <c r="E548" s="38" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F548" s="39"/>
       <c r="G548" s="39"/>
       <c r="H548" s="39"/>
       <c r="I548" s="40"/>
       <c r="J548" s="59" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K548" s="41"/>
       <c r="L548" s="41"/>
@@ -40614,7 +40614,7 @@
       <c r="S548" s="41"/>
       <c r="T548" s="42"/>
       <c r="U548" s="38" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="V548" s="39"/>
       <c r="W548" s="39"/>
@@ -40659,13 +40659,13 @@
         <v>5.17.</v>
       </c>
       <c r="D550" s="4" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="551" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C551" s="15"/>
       <c r="E551" s="4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="552" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -40675,7 +40675,7 @@
         <v>5.18.</v>
       </c>
       <c r="D553" s="4" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="554" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -40689,12 +40689,12 @@
     </row>
     <row r="555" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E555" s="4" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="556" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E556" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AH556" s="76"/>
     </row>
@@ -40703,13 +40703,13 @@
     </row>
     <row r="558" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E558" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AH558" s="76"/>
     </row>
     <row r="559" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E559" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="AH559" s="76"/>
     </row>
@@ -40718,7 +40718,7 @@
     </row>
     <row r="561" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E561" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="AH561" s="76"/>
     </row>
@@ -40731,23 +40731,23 @@
         <v>5.18.2.</v>
       </c>
       <c r="E563" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AH563" s="76"/>
     </row>
     <row r="564" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E564" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="565" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E565" s="60" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F565" s="61"/>
       <c r="G565" s="62"/>
       <c r="H565" s="60" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I565" s="61"/>
       <c r="J565" s="61"/>
@@ -40773,8 +40773,8 @@
       <c r="AD565" s="62"/>
     </row>
     <row r="566" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E566" s="157"/>
-      <c r="F566" s="158"/>
+      <c r="E566" s="134"/>
+      <c r="F566" s="135"/>
       <c r="G566" s="63"/>
       <c r="H566" s="77"/>
       <c r="I566" s="78"/>
@@ -40801,13 +40801,13 @@
       <c r="AD566" s="63"/>
     </row>
     <row r="567" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E567" s="159" t="s">
-        <v>331</v>
-      </c>
-      <c r="F567" s="160"/>
+      <c r="E567" s="136" t="s">
+        <v>327</v>
+      </c>
+      <c r="F567" s="137"/>
       <c r="G567" s="64"/>
       <c r="H567" s="74" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I567" s="75"/>
       <c r="J567" s="75"/>
@@ -40833,8 +40833,8 @@
       <c r="AD567" s="33"/>
     </row>
     <row r="568" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E568" s="161"/>
-      <c r="F568" s="162"/>
+      <c r="E568" s="138"/>
+      <c r="F568" s="139"/>
       <c r="G568" s="65"/>
       <c r="H568" s="72"/>
       <c r="I568" s="73"/>
@@ -40861,13 +40861,13 @@
       <c r="AD568" s="34"/>
     </row>
     <row r="569" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E569" s="163" t="s">
-        <v>333</v>
-      </c>
-      <c r="F569" s="164"/>
+      <c r="E569" s="140" t="s">
+        <v>329</v>
+      </c>
+      <c r="F569" s="141"/>
       <c r="G569" s="64"/>
       <c r="H569" s="74" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I569" s="75"/>
       <c r="J569" s="75"/>
@@ -40895,8 +40895,8 @@
     <row r="570" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C570" s="76"/>
       <c r="D570" s="76"/>
-      <c r="E570" s="161"/>
-      <c r="F570" s="162"/>
+      <c r="E570" s="138"/>
+      <c r="F570" s="139"/>
       <c r="G570" s="65"/>
       <c r="H570" s="72"/>
       <c r="I570" s="73"/>
@@ -40925,13 +40925,13 @@
     <row r="571" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C571" s="76"/>
       <c r="D571" s="76"/>
-      <c r="E571" s="163" t="s">
-        <v>335</v>
-      </c>
-      <c r="F571" s="164"/>
+      <c r="E571" s="140" t="s">
+        <v>331</v>
+      </c>
+      <c r="F571" s="141"/>
       <c r="G571" s="64"/>
       <c r="H571" s="74" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I571" s="75"/>
       <c r="J571" s="75"/>
@@ -40959,11 +40959,11 @@
     <row r="572" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C572" s="76"/>
       <c r="D572" s="76"/>
-      <c r="E572" s="161"/>
-      <c r="F572" s="162"/>
+      <c r="E572" s="138"/>
+      <c r="F572" s="139"/>
       <c r="G572" s="65"/>
       <c r="H572" s="72" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I572" s="73"/>
       <c r="J572" s="73"/>
@@ -40991,13 +40991,13 @@
     <row r="573" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C573" s="76"/>
       <c r="D573" s="76"/>
-      <c r="E573" s="163" t="s">
-        <v>338</v>
-      </c>
-      <c r="F573" s="164"/>
+      <c r="E573" s="140" t="s">
+        <v>334</v>
+      </c>
+      <c r="F573" s="141"/>
       <c r="G573" s="64"/>
       <c r="H573" s="74" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I573" s="75"/>
       <c r="J573" s="75"/>
@@ -41025,11 +41025,11 @@
     <row r="574" spans="1:56" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C574" s="76"/>
       <c r="D574" s="76"/>
-      <c r="E574" s="161"/>
-      <c r="F574" s="162"/>
+      <c r="E574" s="138"/>
+      <c r="F574" s="139"/>
       <c r="G574" s="65"/>
       <c r="H574" s="72" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I574" s="73"/>
       <c r="J574" s="73"/>
@@ -41059,13 +41059,13 @@
       <c r="B575" s="4"/>
       <c r="C575" s="76"/>
       <c r="D575" s="76"/>
-      <c r="E575" s="163" t="s">
-        <v>341</v>
-      </c>
-      <c r="F575" s="164"/>
+      <c r="E575" s="140" t="s">
+        <v>337</v>
+      </c>
+      <c r="F575" s="141"/>
       <c r="G575" s="64"/>
       <c r="H575" s="74" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I575" s="75"/>
       <c r="J575" s="75"/>
@@ -41121,8 +41121,8 @@
       <c r="B576" s="4"/>
       <c r="C576" s="76"/>
       <c r="D576" s="76"/>
-      <c r="E576" s="161"/>
-      <c r="F576" s="162"/>
+      <c r="E576" s="138"/>
+      <c r="F576" s="139"/>
       <c r="G576" s="65"/>
       <c r="H576" s="72"/>
       <c r="I576" s="73"/>
@@ -41241,7 +41241,7 @@
         <v>5.18.3.</v>
       </c>
       <c r="E578" s="4" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F578" s="76"/>
       <c r="G578" s="76"/>
@@ -41301,7 +41301,7 @@
       <c r="C579" s="76"/>
       <c r="D579" s="76"/>
       <c r="E579" s="76" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F579" s="76"/>
       <c r="G579" s="76"/>
@@ -41361,7 +41361,7 @@
       <c r="C580" s="76"/>
       <c r="D580" s="76"/>
       <c r="E580" s="35" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F580" s="36"/>
       <c r="G580" s="36"/>
@@ -41369,7 +41369,7 @@
       <c r="I580" s="36"/>
       <c r="J580" s="37"/>
       <c r="K580" s="36" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L580" s="36"/>
       <c r="M580" s="36"/>
@@ -41423,7 +41423,7 @@
       <c r="C581" s="76"/>
       <c r="D581" s="76"/>
       <c r="E581" s="27" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F581" s="4"/>
       <c r="G581" s="4"/>
@@ -41431,7 +41431,7 @@
       <c r="I581" s="4"/>
       <c r="J581" s="28"/>
       <c r="K581" s="66" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L581" s="41"/>
       <c r="M581" s="41"/>
@@ -41485,7 +41485,7 @@
       <c r="C582" s="76"/>
       <c r="D582" s="76"/>
       <c r="E582" s="66" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F582" s="41"/>
       <c r="G582" s="41"/>
@@ -41493,7 +41493,7 @@
       <c r="I582" s="41"/>
       <c r="J582" s="42"/>
       <c r="K582" s="66" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L582" s="41"/>
       <c r="M582" s="41"/>
@@ -41547,7 +41547,7 @@
       <c r="C583" s="76"/>
       <c r="D583" s="76"/>
       <c r="E583" s="31" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F583" s="32"/>
       <c r="G583" s="32"/>
@@ -41555,7 +41555,7 @@
       <c r="I583" s="32"/>
       <c r="J583" s="33"/>
       <c r="K583" s="32" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="L583" s="32"/>
       <c r="M583" s="32"/>
@@ -41615,7 +41615,7 @@
       <c r="I584" s="30"/>
       <c r="J584" s="34"/>
       <c r="K584" s="30" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="L584" s="30"/>
       <c r="M584" s="30"/>
@@ -41669,7 +41669,7 @@
       <c r="C585" s="76"/>
       <c r="D585" s="76"/>
       <c r="E585" s="31" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F585" s="32"/>
       <c r="G585" s="32"/>
@@ -41677,7 +41677,7 @@
       <c r="I585" s="32"/>
       <c r="J585" s="33"/>
       <c r="K585" s="32" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L585" s="32"/>
       <c r="M585" s="32"/>
@@ -41737,7 +41737,7 @@
       <c r="I586" s="30"/>
       <c r="J586" s="34"/>
       <c r="K586" s="30" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L586" s="30"/>
       <c r="M586" s="30"/>
@@ -41791,7 +41791,7 @@
       <c r="C587" s="76"/>
       <c r="D587" s="76"/>
       <c r="E587" s="31" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F587" s="32"/>
       <c r="G587" s="32"/>
@@ -41799,7 +41799,7 @@
       <c r="I587" s="32"/>
       <c r="J587" s="33"/>
       <c r="K587" s="32" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L587" s="32"/>
       <c r="M587" s="32"/>
@@ -41859,7 +41859,7 @@
       <c r="I588" s="30"/>
       <c r="J588" s="34"/>
       <c r="K588" s="30" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L588" s="30"/>
       <c r="M588" s="30"/>
@@ -41913,7 +41913,7 @@
       <c r="C589" s="76"/>
       <c r="D589" s="76"/>
       <c r="E589" s="29" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F589" s="30"/>
       <c r="G589" s="30"/>
@@ -41921,7 +41921,7 @@
       <c r="I589" s="30"/>
       <c r="J589" s="34"/>
       <c r="K589" s="30" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L589" s="30"/>
       <c r="M589" s="30"/>
@@ -41975,7 +41975,7 @@
       <c r="C590" s="76"/>
       <c r="D590" s="76"/>
       <c r="E590" s="31" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F590" s="32"/>
       <c r="G590" s="32"/>
@@ -41983,7 +41983,7 @@
       <c r="I590" s="32"/>
       <c r="J590" s="33"/>
       <c r="K590" s="32" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L590" s="32"/>
       <c r="M590" s="32"/>
@@ -42043,7 +42043,7 @@
       <c r="I591" s="30"/>
       <c r="J591" s="34"/>
       <c r="K591" s="30" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L591" s="30"/>
       <c r="M591" s="30"/>
@@ -42155,7 +42155,7 @@
       <c r="C593" s="76"/>
       <c r="D593" s="76"/>
       <c r="E593" s="76" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F593" s="76"/>
       <c r="G593" s="76"/>
@@ -42215,7 +42215,7 @@
       <c r="C594" s="76"/>
       <c r="D594" s="76"/>
       <c r="E594" s="76" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F594" s="76"/>
       <c r="G594" s="76"/>
@@ -42275,7 +42275,7 @@
       <c r="C595" s="76"/>
       <c r="D595" s="76"/>
       <c r="E595" s="31" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="F595" s="32"/>
       <c r="G595" s="32"/>
@@ -42335,7 +42335,7 @@
       <c r="C596" s="76"/>
       <c r="D596" s="76"/>
       <c r="E596" s="29" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F596" s="30"/>
       <c r="G596" s="30"/>
@@ -42453,7 +42453,7 @@
       <c r="C598" s="76"/>
       <c r="D598" s="76"/>
       <c r="E598" s="76" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F598" s="76"/>
       <c r="G598" s="76"/>
@@ -42513,7 +42513,7 @@
       <c r="C599" s="76"/>
       <c r="D599" s="76"/>
       <c r="E599" s="76" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F599" s="76"/>
       <c r="G599" s="76"/>
@@ -42573,7 +42573,7 @@
       <c r="C600" s="76"/>
       <c r="D600" s="76"/>
       <c r="E600" s="67" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F600" s="32"/>
       <c r="G600" s="32"/>
@@ -42633,7 +42633,7 @@
       <c r="C601" s="76"/>
       <c r="D601" s="76"/>
       <c r="E601" s="68" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F601" s="30"/>
       <c r="G601" s="30"/>
@@ -42754,7 +42754,7 @@
         <v>5.18.4.</v>
       </c>
       <c r="E603" s="76" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F603" s="76"/>
       <c r="G603" s="76"/>
@@ -42814,7 +42814,7 @@
       <c r="C604" s="76"/>
       <c r="D604" s="50"/>
       <c r="E604" s="76" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F604" s="76"/>
       <c r="G604" s="76"/>
@@ -42932,7 +42932,7 @@
       <c r="C606" s="76"/>
       <c r="D606" s="50"/>
       <c r="E606" s="76" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F606" s="76"/>
       <c r="G606" s="76"/>
@@ -42992,7 +42992,7 @@
       <c r="C607" s="76"/>
       <c r="D607" s="76"/>
       <c r="E607" s="76" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F607" s="76"/>
       <c r="G607" s="76"/>
@@ -43110,7 +43110,7 @@
       <c r="C609" s="76"/>
       <c r="D609" s="76"/>
       <c r="E609" s="76" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F609" s="76"/>
       <c r="G609" s="76"/>
@@ -43231,7 +43231,7 @@
         <v>5.18.5.</v>
       </c>
       <c r="E611" s="76" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F611" s="76"/>
       <c r="G611" s="76"/>
@@ -43291,7 +43291,7 @@
       <c r="C612" s="76"/>
       <c r="D612" s="76"/>
       <c r="E612" s="76" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F612" s="76"/>
       <c r="G612" s="76"/>
@@ -43351,7 +43351,7 @@
       <c r="C613" s="76"/>
       <c r="D613" s="76"/>
       <c r="E613" s="76" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F613" s="76"/>
       <c r="G613" s="76"/>
@@ -43469,14 +43469,14 @@
       <c r="C615" s="76"/>
       <c r="D615" s="76"/>
       <c r="E615" s="35" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F615" s="36"/>
       <c r="G615" s="36"/>
       <c r="H615" s="36"/>
       <c r="I615" s="36"/>
       <c r="J615" s="35" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K615" s="36"/>
       <c r="L615" s="36"/>
@@ -43531,14 +43531,14 @@
       <c r="C616" s="76"/>
       <c r="D616" s="76"/>
       <c r="E616" s="38" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F616" s="39"/>
       <c r="G616" s="39"/>
       <c r="H616" s="39"/>
       <c r="I616" s="40"/>
       <c r="J616" s="38" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K616" s="39"/>
       <c r="L616" s="39"/>
@@ -43593,14 +43593,14 @@
       <c r="C617" s="76"/>
       <c r="D617" s="76"/>
       <c r="E617" s="38" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F617" s="39"/>
       <c r="G617" s="39"/>
       <c r="H617" s="39"/>
       <c r="I617" s="40"/>
       <c r="J617" s="38" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K617" s="39"/>
       <c r="L617" s="39"/>
@@ -43690,7 +43690,7 @@
         <v>5.18.6.</v>
       </c>
       <c r="E619" s="4" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F619" s="76"/>
       <c r="G619" s="76"/>
@@ -43726,7 +43726,7 @@
       <c r="C620" s="76"/>
       <c r="D620" s="76"/>
       <c r="E620" s="76" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F620" s="76"/>
       <c r="G620" s="76"/>
@@ -43799,7 +43799,7 @@
         <v>5.18.7.</v>
       </c>
       <c r="E622" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F622" s="76"/>
       <c r="G622" s="76"/>
@@ -43835,7 +43835,7 @@
       <c r="C623" s="76"/>
       <c r="D623" s="76"/>
       <c r="E623" s="76" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F623" s="76"/>
       <c r="G623" s="76"/>
@@ -43871,7 +43871,7 @@
       <c r="C624" s="76"/>
       <c r="D624" s="76"/>
       <c r="E624" s="76" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F624" s="76"/>
       <c r="G624" s="76"/>
@@ -43944,7 +43944,7 @@
         <v>5.18.8.</v>
       </c>
       <c r="E626" s="4" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F626" s="76"/>
       <c r="G626" s="76"/>
@@ -43980,7 +43980,7 @@
       <c r="C627" s="76"/>
       <c r="D627" s="76"/>
       <c r="E627" s="69" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F627" s="76"/>
       <c r="G627" s="76"/>
@@ -44016,7 +44016,7 @@
       <c r="C628" s="76"/>
       <c r="D628" s="76"/>
       <c r="E628" s="76" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F628" s="76"/>
       <c r="G628" s="76"/>
@@ -44088,7 +44088,7 @@
         <v>5.19.</v>
       </c>
       <c r="D630" s="4" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E630" s="76"/>
       <c r="F630" s="76"/>
@@ -44161,21 +44161,21 @@
         <f>$C$630&amp;"1."</f>
         <v>5.19.1.</v>
       </c>
-      <c r="E632" s="156" t="s">
-        <v>105</v>
-      </c>
-      <c r="F632" s="156"/>
+      <c r="E632" s="133" t="s">
+        <v>103</v>
+      </c>
+      <c r="F632" s="133"/>
     </row>
     <row r="633" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C633" s="15"/>
       <c r="E633" s="4" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="634" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C634" s="15"/>
       <c r="E634" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="635" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -44188,13 +44188,13 @@
         <v>5.19.2.</v>
       </c>
       <c r="E636" s="4" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="637" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B637" s="15"/>
       <c r="E637" s="4" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="638" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -44261,34 +44261,34 @@
         <v>5.19.3.</v>
       </c>
       <c r="E657" s="4" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="658" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C658" s="15"/>
       <c r="D658" s="46"/>
       <c r="E658" s="4" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="659" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C659" s="15"/>
       <c r="D659" s="46"/>
       <c r="E659" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F659" s="4" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="660" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C660" s="15"/>
       <c r="D660" s="46"/>
       <c r="E660" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F660" s="4" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="661" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -44302,13 +44302,13 @@
         <v>5.19.4.</v>
       </c>
       <c r="E662" s="4" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="663" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C663" s="15"/>
       <c r="E663" s="4" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="664" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -44317,10 +44317,10 @@
     <row r="665" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C665" s="15"/>
       <c r="E665" s="35" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F665" s="35" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G665" s="36"/>
       <c r="H665" s="36"/>
@@ -44358,7 +44358,7 @@
         <v>1</v>
       </c>
       <c r="F666" s="31" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G666" s="32"/>
       <c r="H666" s="32"/>
@@ -44368,7 +44368,7 @@
       <c r="L666" s="32"/>
       <c r="M666" s="33"/>
       <c r="N666" s="31" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="O666" s="32"/>
       <c r="P666" s="32"/>
@@ -44396,7 +44396,7 @@
       <c r="F667" s="27"/>
       <c r="M667" s="28"/>
       <c r="N667" s="27" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AG667" s="28"/>
     </row>
@@ -44406,7 +44406,7 @@
       <c r="F668" s="27"/>
       <c r="M668" s="28"/>
       <c r="N668" s="27" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AG668" s="28"/>
     </row>
@@ -44430,7 +44430,7 @@
       <c r="L670" s="30"/>
       <c r="M670" s="34"/>
       <c r="N670" s="29" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="O670" s="30"/>
       <c r="P670" s="30"/>
@@ -44458,7 +44458,7 @@
         <v>2</v>
       </c>
       <c r="F671" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G671" s="32"/>
       <c r="H671" s="32"/>
@@ -44468,7 +44468,7 @@
       <c r="L671" s="32"/>
       <c r="M671" s="33"/>
       <c r="N671" s="31" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="O671" s="32"/>
       <c r="P671" s="32"/>
@@ -44496,7 +44496,7 @@
       <c r="F672" s="27"/>
       <c r="M672" s="28"/>
       <c r="N672" s="27" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="AG672" s="28"/>
     </row>
@@ -44506,7 +44506,7 @@
       <c r="F673" s="27"/>
       <c r="M673" s="28"/>
       <c r="N673" s="27" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AG673" s="28"/>
     </row>
@@ -44548,7 +44548,7 @@
         <v>3</v>
       </c>
       <c r="F675" s="31" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G675" s="32"/>
       <c r="H675" s="32"/>
@@ -44558,7 +44558,7 @@
       <c r="L675" s="32"/>
       <c r="M675" s="33"/>
       <c r="N675" s="31" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="O675" s="32"/>
       <c r="P675" s="32"/>
@@ -44586,7 +44586,7 @@
       <c r="F676" s="27"/>
       <c r="M676" s="28"/>
       <c r="N676" s="27" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="AG676" s="28"/>
     </row>
@@ -44633,28 +44633,28 @@
         <v>5.19.5.</v>
       </c>
       <c r="E679" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="680" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C680" s="15"/>
       <c r="D680" s="46"/>
       <c r="E680" s="4" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="681" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C681" s="15"/>
       <c r="D681" s="46"/>
       <c r="E681" s="4" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="682" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C682" s="15"/>
       <c r="D682" s="46"/>
       <c r="E682" s="4" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="683" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -44668,31 +44668,31 @@
         <v>5.19.6.</v>
       </c>
       <c r="E684" s="4" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="685" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C685" s="15"/>
       <c r="E685" s="4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="686" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C686" s="15"/>
       <c r="E686" s="4" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="687" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C687" s="15"/>
       <c r="E687" s="4" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="688" spans="3:33" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C688" s="15"/>
       <c r="E688" s="4" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="689" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -44701,10 +44701,10 @@
     <row r="690" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C690" s="15"/>
       <c r="E690" s="35" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F690" s="35" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G690" s="36"/>
       <c r="H690" s="36"/>
@@ -44714,7 +44714,7 @@
       <c r="L690" s="36"/>
       <c r="M690" s="37"/>
       <c r="N690" s="35" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="O690" s="36"/>
       <c r="P690" s="36"/>
@@ -44742,7 +44742,7 @@
         <v>1</v>
       </c>
       <c r="F691" s="31" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G691" s="32"/>
       <c r="H691" s="32"/>
@@ -44752,7 +44752,7 @@
       <c r="L691" s="32"/>
       <c r="M691" s="33"/>
       <c r="N691" s="31" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="O691" s="32"/>
       <c r="P691" s="32"/>
@@ -44778,11 +44778,11 @@
       <c r="C692" s="15"/>
       <c r="E692" s="71"/>
       <c r="F692" s="27" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M692" s="28"/>
       <c r="N692" s="27" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AG692" s="28"/>
     </row>
@@ -44798,7 +44798,7 @@
       <c r="L693" s="30"/>
       <c r="M693" s="34"/>
       <c r="N693" s="29" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="O693" s="30"/>
       <c r="P693" s="30"/>
@@ -44826,7 +44826,7 @@
         <v>2</v>
       </c>
       <c r="F694" s="31" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G694" s="32"/>
       <c r="H694" s="32"/>
@@ -44836,7 +44836,7 @@
       <c r="L694" s="32"/>
       <c r="M694" s="33"/>
       <c r="N694" s="31" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="O694" s="32"/>
       <c r="P694" s="32"/>
@@ -44864,7 +44864,7 @@
       <c r="F695" s="27"/>
       <c r="M695" s="28"/>
       <c r="N695" s="27" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AG695" s="28"/>
     </row>
@@ -44874,7 +44874,7 @@
       <c r="F696" s="27"/>
       <c r="M696" s="28"/>
       <c r="N696" s="27" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AG696" s="28"/>
     </row>
@@ -44890,7 +44890,7 @@
       <c r="L697" s="30"/>
       <c r="M697" s="34"/>
       <c r="N697" s="29" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="O697" s="30"/>
       <c r="P697" s="30"/>
@@ -44923,19 +44923,19 @@
         <v>5.19.7.</v>
       </c>
       <c r="E699" s="4" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="700" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C700" s="15"/>
       <c r="E700" s="4" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="701" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C701" s="15"/>
       <c r="E701" s="4" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="702" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -44944,10 +44944,10 @@
     <row r="703" spans="3:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C703" s="15"/>
       <c r="E703" s="35" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F703" s="35" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G703" s="36"/>
       <c r="H703" s="36"/>
@@ -44957,7 +44957,7 @@
       <c r="L703" s="36"/>
       <c r="M703" s="37"/>
       <c r="N703" s="35" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="O703" s="36"/>
       <c r="P703" s="36"/>
@@ -44985,7 +44985,7 @@
         <v>1</v>
       </c>
       <c r="F704" s="31" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G704" s="32"/>
       <c r="H704" s="32"/>
@@ -44995,7 +44995,7 @@
       <c r="L704" s="32"/>
       <c r="M704" s="33"/>
       <c r="N704" s="31" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="O704" s="32"/>
       <c r="P704" s="32"/>
@@ -45022,11 +45022,11 @@
       <c r="C705" s="15"/>
       <c r="E705" s="71"/>
       <c r="F705" s="27" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M705" s="28"/>
       <c r="N705" s="27" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="AG705" s="28"/>
       <c r="AH705" s="15"/>
@@ -45037,7 +45037,7 @@
       <c r="F706" s="27"/>
       <c r="M706" s="28"/>
       <c r="N706" s="27" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AG706" s="28"/>
       <c r="AH706" s="15"/>
@@ -45054,7 +45054,7 @@
       <c r="L707" s="30"/>
       <c r="M707" s="34"/>
       <c r="N707" s="29" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="O707" s="30"/>
       <c r="P707" s="30"/>
@@ -45083,7 +45083,7 @@
         <v>2</v>
       </c>
       <c r="F708" s="31" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G708" s="32"/>
       <c r="H708" s="32"/>
@@ -45093,7 +45093,7 @@
       <c r="L708" s="32"/>
       <c r="M708" s="33"/>
       <c r="N708" s="22" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="O708" s="32"/>
       <c r="P708" s="32"/>
@@ -45120,11 +45120,11 @@
       <c r="C709" s="15"/>
       <c r="E709" s="71"/>
       <c r="F709" s="27" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M709" s="28"/>
       <c r="N709" s="27" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="AG709" s="28"/>
       <c r="AH709" s="15"/>
@@ -45133,7 +45133,7 @@
       <c r="C710" s="15"/>
       <c r="E710" s="44"/>
       <c r="F710" s="29" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G710" s="30"/>
       <c r="H710" s="30"/>
@@ -45143,7 +45143,7 @@
       <c r="L710" s="30"/>
       <c r="M710" s="34"/>
       <c r="N710" s="29" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O710" s="30"/>
       <c r="P710" s="30"/>
@@ -45204,7 +45204,7 @@
         <v>5.20.</v>
       </c>
       <c r="D712" s="4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E712" s="81"/>
       <c r="F712" s="81"/>
@@ -45244,7 +45244,7 @@
         <v>1.</v>
       </c>
       <c r="E713" s="81" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F713" s="81"/>
       <c r="G713" s="81"/>
@@ -45280,7 +45280,7 @@
       <c r="C714" s="81"/>
       <c r="D714" s="81"/>
       <c r="E714" s="81" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F714" s="81"/>
       <c r="G714" s="81"/>
@@ -45316,7 +45316,7 @@
       <c r="C715" s="81"/>
       <c r="D715" s="81"/>
       <c r="E715" s="81" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F715" s="81"/>
       <c r="G715" s="81"/>
@@ -45352,7 +45352,7 @@
       <c r="C716" s="81"/>
       <c r="D716" s="81"/>
       <c r="E716" s="81" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F716" s="81"/>
       <c r="G716" s="81"/>
@@ -45388,7 +45388,7 @@
       <c r="C717" s="81"/>
       <c r="D717" s="81"/>
       <c r="E717" s="81" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F717" s="81"/>
       <c r="G717" s="81"/>
@@ -45424,7 +45424,7 @@
       <c r="C718" s="81"/>
       <c r="D718" s="81"/>
       <c r="E718" s="81" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F718" s="81"/>
       <c r="G718" s="81"/>
@@ -45497,7 +45497,7 @@
         <v>2.</v>
       </c>
       <c r="E720" s="81" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F720" s="81"/>
       <c r="G720" s="81"/>
@@ -45533,7 +45533,7 @@
       <c r="C721" s="81"/>
       <c r="D721" s="81"/>
       <c r="E721" s="81" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F721" s="81"/>
       <c r="G721" s="81"/>
@@ -45852,7 +45852,7 @@
         <v>3.</v>
       </c>
       <c r="E743" s="81" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F743" s="81"/>
       <c r="G743" s="81"/>
@@ -45888,7 +45888,7 @@
       <c r="C744" s="81"/>
       <c r="D744" s="81"/>
       <c r="E744" s="81" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="F744" s="81"/>
       <c r="G744" s="81"/>
@@ -45960,7 +45960,7 @@
         <v>5.21.</v>
       </c>
       <c r="D746" s="76" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E746" s="76"/>
       <c r="F746" s="76"/>
@@ -45994,7 +45994,7 @@
         <v>5.21.1.</v>
       </c>
       <c r="E747" s="76" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F747" s="76"/>
       <c r="G747" s="76"/>
@@ -46024,7 +46024,7 @@
       <c r="C748" s="76"/>
       <c r="D748" s="76"/>
       <c r="E748" s="76" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F748" s="76"/>
       <c r="G748" s="76"/>
@@ -46082,7 +46082,7 @@
       <c r="C750" s="76"/>
       <c r="D750" s="76"/>
       <c r="E750" s="76" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F750" s="76"/>
       <c r="G750" s="76"/>
@@ -46140,7 +46140,7 @@
       <c r="C752" s="76"/>
       <c r="D752" s="76"/>
       <c r="E752" s="43" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F752" s="24"/>
       <c r="G752" s="24"/>
@@ -46153,7 +46153,7 @@
       <c r="N752" s="24"/>
       <c r="O752" s="23"/>
       <c r="P752" s="43" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="Q752" s="24"/>
       <c r="R752" s="24"/>
@@ -46172,7 +46172,7 @@
       <c r="C753" s="76"/>
       <c r="D753" s="76"/>
       <c r="E753" s="38" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F753" s="39"/>
       <c r="G753" s="39"/>
@@ -46185,7 +46185,7 @@
       <c r="N753" s="39"/>
       <c r="O753" s="40"/>
       <c r="P753" s="38" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="Q753" s="39"/>
       <c r="R753" s="39"/>
@@ -46204,7 +46204,7 @@
       <c r="C754" s="76"/>
       <c r="D754" s="76"/>
       <c r="E754" s="38" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F754" s="39"/>
       <c r="G754" s="39"/>
@@ -46217,7 +46217,7 @@
       <c r="N754" s="39"/>
       <c r="O754" s="40"/>
       <c r="P754" s="38" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="Q754" s="39"/>
       <c r="R754" s="39"/>
@@ -46264,7 +46264,7 @@
       <c r="C756" s="76"/>
       <c r="D756" s="16"/>
       <c r="E756" s="76" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F756" s="76"/>
       <c r="G756" s="76"/>
@@ -46325,7 +46325,7 @@
         <v>5.21.2.</v>
       </c>
       <c r="E758" s="76" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F758" s="76"/>
       <c r="G758" s="76"/>
@@ -46355,7 +46355,7 @@
       <c r="C759" s="76"/>
       <c r="D759" s="16"/>
       <c r="E759" s="76" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F759" s="76"/>
       <c r="G759" s="76"/>
@@ -46385,7 +46385,7 @@
       <c r="C760" s="76"/>
       <c r="D760" s="16"/>
       <c r="E760" s="76" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F760" s="76"/>
       <c r="G760" s="76"/>
@@ -46416,7 +46416,7 @@
       <c r="C761" s="76"/>
       <c r="D761" s="16"/>
       <c r="E761" s="76" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F761" s="76"/>
       <c r="G761" s="76"/>
@@ -46476,7 +46476,7 @@
       <c r="C762" s="76"/>
       <c r="D762" s="16"/>
       <c r="E762" s="76" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F762" s="76"/>
       <c r="G762" s="76"/>
@@ -46594,7 +46594,7 @@
       <c r="C764" s="76"/>
       <c r="D764" s="16"/>
       <c r="E764" s="76" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F764" s="76"/>
       <c r="G764" s="76"/>
@@ -46712,7 +46712,7 @@
       <c r="C766" s="76"/>
       <c r="D766" s="16"/>
       <c r="E766" s="76" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F766" s="76"/>
       <c r="G766" s="76"/>
@@ -46772,7 +46772,7 @@
       <c r="C767" s="76"/>
       <c r="D767" s="16"/>
       <c r="E767" s="76" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F767" s="76"/>
       <c r="G767" s="76"/>
@@ -46832,7 +46832,7 @@
       <c r="C768" s="76"/>
       <c r="D768" s="16"/>
       <c r="E768" s="76" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F768" s="76"/>
       <c r="G768" s="76"/>
@@ -46952,7 +46952,7 @@
         <v>5.22.</v>
       </c>
       <c r="D770" s="76" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E770" s="76"/>
       <c r="F770" s="76"/>
@@ -47012,7 +47012,7 @@
       <c r="B771" s="76"/>
       <c r="C771" s="76"/>
       <c r="D771" s="76" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E771" s="76"/>
       <c r="F771" s="76"/>
@@ -47072,7 +47072,7 @@
       <c r="B772" s="76"/>
       <c r="C772" s="76"/>
       <c r="D772" s="76" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E772" s="76"/>
       <c r="F772" s="76"/>
@@ -47132,7 +47132,7 @@
       <c r="B773" s="76"/>
       <c r="C773" s="76"/>
       <c r="D773" s="76" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E773" s="76"/>
       <c r="F773" s="76"/>
@@ -47250,7 +47250,7 @@
       <c r="B775" s="76"/>
       <c r="C775" s="76"/>
       <c r="D775" s="76" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E775" s="76"/>
       <c r="F775" s="76"/>
@@ -47368,7 +47368,7 @@
       <c r="B777" s="76"/>
       <c r="C777" s="76"/>
       <c r="D777" s="76" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E777" s="76"/>
       <c r="F777" s="76"/>
@@ -47405,7 +47405,7 @@
       <c r="B778" s="76"/>
       <c r="C778" s="76"/>
       <c r="D778" s="108" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E778" s="76"/>
       <c r="F778" s="76"/>
@@ -47442,7 +47442,7 @@
       <c r="B779" s="76"/>
       <c r="C779" s="76"/>
       <c r="D779" s="76" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E779" s="76"/>
       <c r="F779" s="76"/>
@@ -47514,7 +47514,7 @@
       <c r="B781" s="76"/>
       <c r="C781" s="76"/>
       <c r="D781" s="35" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E781" s="36"/>
       <c r="F781" s="36"/>
@@ -47522,7 +47522,7 @@
       <c r="H781" s="36"/>
       <c r="I781" s="36"/>
       <c r="J781" s="35" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="K781" s="36"/>
       <c r="L781" s="36"/>
@@ -47553,7 +47553,7 @@
       <c r="B782" s="76"/>
       <c r="C782" s="76"/>
       <c r="D782" s="38" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E782" s="39"/>
       <c r="F782" s="39"/>
@@ -47561,7 +47561,7 @@
       <c r="H782" s="39"/>
       <c r="I782" s="40"/>
       <c r="J782" s="38" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K782" s="39"/>
       <c r="L782" s="39"/>
@@ -47631,7 +47631,7 @@
         <v>5.23.</v>
       </c>
       <c r="D784" s="4" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E784" s="81"/>
       <c r="F784" s="81"/>
@@ -47669,7 +47669,7 @@
       <c r="B785" s="81"/>
       <c r="C785" s="81"/>
       <c r="D785" s="81" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E785" s="81"/>
       <c r="F785" s="81"/>
@@ -47743,10 +47743,10 @@
       <c r="B787" s="81"/>
       <c r="C787" s="81"/>
       <c r="D787" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E787" s="81" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F787" s="81"/>
       <c r="G787" s="81"/>
@@ -47783,10 +47783,10 @@
       <c r="B788" s="81"/>
       <c r="C788" s="81"/>
       <c r="D788" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E788" s="81" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F788" s="81"/>
       <c r="G788" s="81"/>
@@ -47859,7 +47859,7 @@
       <c r="B790" s="81"/>
       <c r="C790" s="81"/>
       <c r="D790" s="81" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E790" s="81"/>
       <c r="F790" s="81"/>
@@ -47897,7 +47897,7 @@
       <c r="B791" s="81"/>
       <c r="C791" s="81"/>
       <c r="D791" s="81" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E791" s="81"/>
       <c r="F791" s="81"/>
@@ -47936,6 +47936,35 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="E1:O1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="R2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:O3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="E501:L501"/>
+    <mergeCell ref="M501:U501"/>
+    <mergeCell ref="V501:AG501"/>
+    <mergeCell ref="E502:L502"/>
+    <mergeCell ref="M502:U502"/>
+    <mergeCell ref="V502:AG502"/>
+    <mergeCell ref="E503:L503"/>
+    <mergeCell ref="M503:U503"/>
+    <mergeCell ref="V503:AG503"/>
+    <mergeCell ref="E504:L504"/>
+    <mergeCell ref="M504:U504"/>
+    <mergeCell ref="V504:AG504"/>
+    <mergeCell ref="E505:L505"/>
+    <mergeCell ref="M505:U505"/>
+    <mergeCell ref="V505:AG505"/>
+    <mergeCell ref="E506:L506"/>
+    <mergeCell ref="M506:U506"/>
+    <mergeCell ref="V506:AG506"/>
     <mergeCell ref="E632:F632"/>
     <mergeCell ref="E566:F566"/>
     <mergeCell ref="E567:F567"/>
@@ -47948,35 +47977,6 @@
     <mergeCell ref="E574:F574"/>
     <mergeCell ref="E575:F575"/>
     <mergeCell ref="E576:F576"/>
-    <mergeCell ref="E505:L505"/>
-    <mergeCell ref="M505:U505"/>
-    <mergeCell ref="V505:AG505"/>
-    <mergeCell ref="E506:L506"/>
-    <mergeCell ref="M506:U506"/>
-    <mergeCell ref="V506:AG506"/>
-    <mergeCell ref="E503:L503"/>
-    <mergeCell ref="M503:U503"/>
-    <mergeCell ref="V503:AG503"/>
-    <mergeCell ref="E504:L504"/>
-    <mergeCell ref="M504:U504"/>
-    <mergeCell ref="V504:AG504"/>
-    <mergeCell ref="E501:L501"/>
-    <mergeCell ref="M501:U501"/>
-    <mergeCell ref="V501:AG501"/>
-    <mergeCell ref="E502:L502"/>
-    <mergeCell ref="M502:U502"/>
-    <mergeCell ref="V502:AG502"/>
-    <mergeCell ref="E1:O1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="R2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:O3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
